--- a/code_generate_figures/data/ranks_all_Maxquant_TMT_ensemble_topk.xlsx
+++ b/code_generate_figures/data/ranks_all_Maxquant_TMT_ensemble_topk.xlsx
@@ -962,7 +962,7 @@
         <v>0.818244506666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8176884</v>
+        <v>0.8171323</v>
       </c>
       <c r="J2" t="n">
         <v>20</v>
@@ -974,55 +974,55 @@
         <v>0.921097786666667</v>
       </c>
       <c r="M2" t="n">
-        <v>0.93272795</v>
+        <v>0.9332168</v>
       </c>
       <c r="N2" t="n">
         <v>18</v>
       </c>
       <c r="O2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P2" t="n">
         <v>0.939637553333333</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9519475</v>
+        <v>0.9527562</v>
       </c>
       <c r="R2" t="n">
         <v>14</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T2" t="n">
         <v>0.886472473333333</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9480065</v>
+        <v>0.9523597</v>
       </c>
       <c r="V2" t="n">
         <v>78</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="X2" t="n">
         <v>0.822428846666667</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.94001475</v>
+        <v>0.9419843</v>
       </c>
       <c r="Z2" t="n">
         <v>76</v>
       </c>
       <c r="AA2" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="AB2" t="n">
         <v>41.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="3">
@@ -1051,7 +1051,7 @@
         <v>0.818251173333333</v>
       </c>
       <c r="I3" t="n">
-        <v>0.81764975</v>
+        <v>0.8170483</v>
       </c>
       <c r="J3" t="n">
         <v>16</v>
@@ -1063,55 +1063,55 @@
         <v>0.921106873333333</v>
       </c>
       <c r="M3" t="n">
-        <v>0.93272885</v>
+        <v>0.933218</v>
       </c>
       <c r="N3" t="n">
         <v>14</v>
       </c>
       <c r="O3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P3" t="n">
         <v>0.93964212</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.95194795</v>
+        <v>0.9527568</v>
       </c>
       <c r="R3" t="n">
         <v>11</v>
       </c>
       <c r="S3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T3" t="n">
         <v>0.886472473333333</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9480065</v>
+        <v>0.9523597</v>
       </c>
       <c r="V3" t="n">
         <v>79</v>
       </c>
       <c r="W3" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="X3" t="n">
         <v>0.822428846666667</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.94001475</v>
+        <v>0.9419843</v>
       </c>
       <c r="Z3" t="n">
         <v>77</v>
       </c>
       <c r="AA3" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AB3" t="n">
         <v>39.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="4">
@@ -1140,7 +1140,7 @@
         <v>0.81825156</v>
       </c>
       <c r="I4" t="n">
-        <v>0.81767905</v>
+        <v>0.8171065</v>
       </c>
       <c r="J4" t="n">
         <v>14</v>
@@ -1152,55 +1152,55 @@
         <v>0.921102733333333</v>
       </c>
       <c r="M4" t="n">
-        <v>0.93272765</v>
+        <v>0.9332168</v>
       </c>
       <c r="N4" t="n">
         <v>16</v>
       </c>
       <c r="O4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P4" t="n">
         <v>0.93964004</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.95194735</v>
+        <v>0.9527562</v>
       </c>
       <c r="R4" t="n">
         <v>13</v>
       </c>
       <c r="S4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="T4" t="n">
         <v>0.886472473333333</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9480065</v>
+        <v>0.9523597</v>
       </c>
       <c r="V4" t="n">
         <v>80</v>
       </c>
       <c r="W4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="X4" t="n">
         <v>0.822428846666667</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.94001475</v>
+        <v>0.9419843</v>
       </c>
       <c r="Z4" t="n">
         <v>78</v>
       </c>
       <c r="AA4" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="AB4" t="n">
         <v>40.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -1229,7 +1229,7 @@
         <v>0.818250946666667</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8176884</v>
+        <v>0.8171259</v>
       </c>
       <c r="J5" t="n">
         <v>17</v>
@@ -1241,55 +1241,55 @@
         <v>0.92109696</v>
       </c>
       <c r="M5" t="n">
-        <v>0.93272055</v>
+        <v>0.9332094</v>
       </c>
       <c r="N5" t="n">
         <v>19</v>
       </c>
       <c r="O5" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P5" t="n">
         <v>0.939636933333333</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9519434</v>
+        <v>0.9527518</v>
       </c>
       <c r="R5" t="n">
         <v>15</v>
       </c>
       <c r="S5" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="T5" t="n">
         <v>0.886446373333333</v>
       </c>
       <c r="U5" t="n">
-        <v>0.94788125</v>
+        <v>0.9523597</v>
       </c>
       <c r="V5" t="n">
         <v>83</v>
       </c>
       <c r="W5" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X5" t="n">
         <v>0.822414486666667</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.94001475</v>
+        <v>0.9419843</v>
       </c>
       <c r="Z5" t="n">
         <v>81</v>
       </c>
       <c r="AA5" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="AB5" t="n">
         <v>43</v>
       </c>
       <c r="AC5" t="n">
-        <v>30.8</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="6">
@@ -1318,67 +1318,67 @@
         <v>0.8182203</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8176343</v>
+        <v>0.8170483</v>
       </c>
       <c r="J6" t="n">
         <v>23</v>
       </c>
       <c r="K6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L6" t="n">
         <v>0.921111593333333</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9327427</v>
+        <v>0.9332543</v>
       </c>
       <c r="N6" t="n">
         <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="P6" t="n">
         <v>0.939645533333333</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9519568</v>
+        <v>0.952778</v>
       </c>
       <c r="R6" t="n">
         <v>7</v>
       </c>
       <c r="S6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T6" t="n">
         <v>0.886455773333333</v>
       </c>
       <c r="U6" t="n">
-        <v>0.94788125</v>
+        <v>0.9523597</v>
       </c>
       <c r="V6" t="n">
         <v>81</v>
       </c>
       <c r="W6" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="X6" t="n">
         <v>0.82241854</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.94001475</v>
+        <v>0.9419843</v>
       </c>
       <c r="Z6" t="n">
         <v>79</v>
       </c>
       <c r="AA6" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AB6" t="n">
         <v>40</v>
       </c>
       <c r="AC6" t="n">
-        <v>29.4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -1407,67 +1407,67 @@
         <v>0.818251833333333</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8176565</v>
+        <v>0.8170612</v>
       </c>
       <c r="J7" t="n">
         <v>13</v>
       </c>
       <c r="K7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7" t="n">
         <v>0.921106953333333</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9327276</v>
+        <v>0.933218</v>
       </c>
       <c r="N7" t="n">
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P7" t="n">
         <v>0.939642173333333</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9519473</v>
+        <v>0.9527568</v>
       </c>
       <c r="R7" t="n">
         <v>10</v>
       </c>
       <c r="S7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T7" t="n">
         <v>0.886455773333333</v>
       </c>
       <c r="U7" t="n">
-        <v>0.94788125</v>
+        <v>0.9523597</v>
       </c>
       <c r="V7" t="n">
         <v>82</v>
       </c>
       <c r="W7" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="X7" t="n">
         <v>0.82241854</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.94001475</v>
+        <v>0.9419843</v>
       </c>
       <c r="Z7" t="n">
         <v>80</v>
       </c>
       <c r="AA7" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="AB7" t="n">
         <v>39.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>31.6</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="8">
@@ -1496,7 +1496,7 @@
         <v>0.818403686666667</v>
       </c>
       <c r="I8" t="n">
-        <v>0.818473</v>
+        <v>0.8185423</v>
       </c>
       <c r="J8" t="n">
         <v>8</v>
@@ -1508,55 +1508,55 @@
         <v>0.921112413333333</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9327725</v>
+        <v>0.9332408</v>
       </c>
       <c r="N8" t="n">
         <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P8" t="n">
         <v>0.93964078</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9519659</v>
+        <v>0.9527609</v>
       </c>
       <c r="R8" t="n">
         <v>12</v>
       </c>
       <c r="S8" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T8" t="n">
         <v>0.886373473333333</v>
       </c>
       <c r="U8" t="n">
-        <v>0.9477562</v>
+        <v>0.9523597</v>
       </c>
       <c r="V8" t="n">
         <v>87</v>
       </c>
       <c r="W8" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="X8" t="n">
         <v>0.822378833333333</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9398783</v>
+        <v>0.9419184</v>
       </c>
       <c r="Z8" t="n">
         <v>85</v>
       </c>
       <c r="AA8" t="n">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="AB8" t="n">
         <v>40.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>28.6</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="9">
@@ -1585,7 +1585,7 @@
         <v>0.818120253333333</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8174905</v>
+        <v>0.8168607</v>
       </c>
       <c r="J9" t="n">
         <v>27</v>
@@ -1597,55 +1597,55 @@
         <v>0.92102276</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9325321</v>
+        <v>0.933234</v>
       </c>
       <c r="N9" t="n">
         <v>29</v>
       </c>
       <c r="O9" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="P9" t="n">
         <v>0.939544286666667</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.95177785</v>
+        <v>0.952766</v>
       </c>
       <c r="R9" t="n">
         <v>31</v>
       </c>
       <c r="S9" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="T9" t="n">
         <v>0.8865145</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9483867</v>
+        <v>0.9526186</v>
       </c>
       <c r="V9" t="n">
         <v>75</v>
       </c>
       <c r="W9" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="X9" t="n">
         <v>0.822393006666667</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.93982835</v>
+        <v>0.9416115</v>
       </c>
       <c r="Z9" t="n">
         <v>84</v>
       </c>
       <c r="AA9" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="n">
         <v>49.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>42.4</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="10">
@@ -1674,31 +1674,31 @@
         <v>0.81824992</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8176782</v>
+        <v>0.8171065</v>
       </c>
       <c r="J10" t="n">
         <v>18</v>
       </c>
       <c r="K10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" t="n">
         <v>0.921108953333333</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9327181</v>
+        <v>0.9332125</v>
       </c>
       <c r="N10" t="n">
         <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P10" t="n">
         <v>0.939643113333333</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9519426</v>
+        <v>0.9527537</v>
       </c>
       <c r="R10" t="n">
         <v>8</v>
@@ -1710,31 +1710,31 @@
         <v>0.886429893333333</v>
       </c>
       <c r="U10" t="n">
-        <v>0.94788125</v>
+        <v>0.9523597</v>
       </c>
       <c r="V10" t="n">
         <v>85</v>
       </c>
       <c r="W10" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="X10" t="n">
         <v>0.822404493333333</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.939963</v>
+        <v>0.9419843</v>
       </c>
       <c r="Z10" t="n">
         <v>82</v>
       </c>
       <c r="AA10" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="AB10" t="n">
         <v>40.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>33.6</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="11">
@@ -1763,67 +1763,67 @@
         <v>0.81824706</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8183947</v>
+        <v>0.8185423</v>
       </c>
       <c r="J11" t="n">
         <v>19</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
         <v>0.921071126666667</v>
       </c>
       <c r="M11" t="n">
-        <v>0.93277125</v>
+        <v>0.9332408</v>
       </c>
       <c r="N11" t="n">
         <v>23</v>
       </c>
       <c r="O11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P11" t="n">
         <v>0.939618526666667</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.95196435</v>
+        <v>0.9527609</v>
       </c>
       <c r="R11" t="n">
         <v>21</v>
       </c>
       <c r="S11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="T11" t="n">
         <v>0.886373473333333</v>
       </c>
       <c r="U11" t="n">
-        <v>0.9477562</v>
+        <v>0.9523597</v>
       </c>
       <c r="V11" t="n">
         <v>88</v>
       </c>
       <c r="W11" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="X11" t="n">
         <v>0.822378833333333</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.9398783</v>
+        <v>0.9419184</v>
       </c>
       <c r="Z11" t="n">
         <v>86</v>
       </c>
       <c r="AA11" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="AB11" t="n">
         <v>47.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>29.8</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="12">
@@ -1852,67 +1852,67 @@
         <v>0.81790886</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8171306</v>
+        <v>0.8163523</v>
       </c>
       <c r="J12" t="n">
         <v>32</v>
       </c>
       <c r="K12" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L12" t="n">
         <v>0.92091694</v>
       </c>
       <c r="M12" t="n">
-        <v>0.93253515</v>
+        <v>0.9332352</v>
       </c>
       <c r="N12" t="n">
         <v>33</v>
       </c>
       <c r="O12" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="P12" t="n">
         <v>0.939471453333333</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.95178105</v>
+        <v>0.9527698</v>
       </c>
       <c r="R12" t="n">
         <v>33</v>
       </c>
       <c r="S12" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="T12" t="n">
         <v>0.88651436</v>
       </c>
       <c r="U12" t="n">
-        <v>0.9485123</v>
+        <v>0.9526186</v>
       </c>
       <c r="V12" t="n">
         <v>76</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="X12" t="n">
         <v>0.822356726666667</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.93982835</v>
+        <v>0.9416115</v>
       </c>
       <c r="Z12" t="n">
         <v>88</v>
       </c>
       <c r="AA12" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="n">
         <v>52.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>42.2</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="13">
@@ -1941,67 +1941,67 @@
         <v>0.8182368</v>
       </c>
       <c r="I13" t="n">
-        <v>0.81764255</v>
+        <v>0.8170483</v>
       </c>
       <c r="J13" t="n">
         <v>21</v>
       </c>
       <c r="K13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L13" t="n">
         <v>0.921107026666667</v>
       </c>
       <c r="M13" t="n">
-        <v>0.93271965</v>
+        <v>0.9332205</v>
       </c>
       <c r="N13" t="n">
         <v>12</v>
       </c>
       <c r="O13" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P13" t="n">
         <v>0.939642266666667</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.95194355</v>
+        <v>0.9527578</v>
       </c>
       <c r="R13" t="n">
         <v>9</v>
       </c>
       <c r="S13" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="T13" t="n">
         <v>0.886429893333333</v>
       </c>
       <c r="U13" t="n">
-        <v>0.94788125</v>
+        <v>0.9523597</v>
       </c>
       <c r="V13" t="n">
         <v>86</v>
       </c>
       <c r="W13" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="X13" t="n">
         <v>0.822404493333333</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.939963</v>
+        <v>0.9419843</v>
       </c>
       <c r="Z13" t="n">
         <v>83</v>
       </c>
       <c r="AA13" t="n">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="AB13" t="n">
         <v>42.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>34.2</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="14">
@@ -2030,67 +2030,67 @@
         <v>0.818218666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>0.81834815</v>
+        <v>0.8184776</v>
       </c>
       <c r="J14" t="n">
         <v>24</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L14" t="n">
         <v>0.921053513333333</v>
       </c>
       <c r="M14" t="n">
-        <v>0.93270555</v>
+        <v>0.9331794</v>
       </c>
       <c r="N14" t="n">
         <v>25</v>
       </c>
       <c r="O14" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="P14" t="n">
         <v>0.939607866666667</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9519291</v>
+        <v>0.9527282</v>
       </c>
       <c r="R14" t="n">
         <v>24</v>
       </c>
       <c r="S14" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="T14" t="n">
         <v>0.886340946666667</v>
       </c>
       <c r="U14" t="n">
-        <v>0.9477562</v>
+        <v>0.9523597</v>
       </c>
       <c r="V14" t="n">
         <v>89</v>
       </c>
       <c r="W14" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="X14" t="n">
         <v>0.822361926666667</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.9398783</v>
+        <v>0.9419184</v>
       </c>
       <c r="Z14" t="n">
         <v>87</v>
       </c>
       <c r="AA14" t="n">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="AB14" t="n">
         <v>49.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>38</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="15">
@@ -2119,7 +2119,7 @@
         <v>0.817564273333333</v>
       </c>
       <c r="I15" t="n">
-        <v>0.81634</v>
+        <v>0.8151157</v>
       </c>
       <c r="J15" t="n">
         <v>34</v>
@@ -2131,55 +2131,55 @@
         <v>0.92060794</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9325514</v>
+        <v>0.9331922</v>
       </c>
       <c r="N15" t="n">
         <v>34</v>
       </c>
       <c r="O15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P15" t="n">
         <v>0.939266466666667</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.95178825</v>
+        <v>0.952748</v>
       </c>
       <c r="R15" t="n">
         <v>34</v>
       </c>
       <c r="S15" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T15" t="n">
         <v>0.886446253333333</v>
       </c>
       <c r="U15" t="n">
-        <v>0.94834265</v>
+        <v>0.9529473</v>
       </c>
       <c r="V15" t="n">
         <v>84</v>
       </c>
       <c r="W15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X15" t="n">
         <v>0.822217433333333</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.93982835</v>
+        <v>0.9416115</v>
       </c>
       <c r="Z15" t="n">
         <v>89</v>
       </c>
       <c r="AA15" t="n">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="n">
         <v>55</v>
       </c>
       <c r="AC15" t="n">
-        <v>39.8</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="16">
@@ -2208,7 +2208,7 @@
         <v>0.818190873333333</v>
       </c>
       <c r="I16" t="n">
-        <v>0.81756785</v>
+        <v>0.8169448</v>
       </c>
       <c r="J16" t="n">
         <v>25</v>
@@ -2220,7 +2220,7 @@
         <v>0.92111584</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9327669</v>
+        <v>0.9332438</v>
       </c>
       <c r="N16" t="n">
         <v>8</v>
@@ -2232,43 +2232,43 @@
         <v>0.93963412</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9519678</v>
+        <v>0.9527694</v>
       </c>
       <c r="R16" t="n">
         <v>16</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T16" t="n">
         <v>0.886483253333333</v>
       </c>
       <c r="U16" t="n">
-        <v>0.94813595</v>
+        <v>0.9526186</v>
       </c>
       <c r="V16" t="n">
         <v>77</v>
       </c>
       <c r="W16" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="X16" t="n">
         <v>0.822434966666667</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.939963</v>
+        <v>0.9419843</v>
       </c>
       <c r="Z16" t="n">
         <v>75</v>
       </c>
       <c r="AA16" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="AB16" t="n">
         <v>40.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>26.4</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="17">
@@ -2297,67 +2297,67 @@
         <v>0.76752816</v>
       </c>
       <c r="I17" t="n">
-        <v>0.791099</v>
+        <v>0.7945161</v>
       </c>
       <c r="J17" t="n">
         <v>52</v>
       </c>
       <c r="K17" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L17" t="n">
         <v>0.88682758</v>
       </c>
       <c r="M17" t="n">
-        <v>0.93031915</v>
+        <v>0.9309133</v>
       </c>
       <c r="N17" t="n">
         <v>53</v>
       </c>
       <c r="O17" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P17" t="n">
         <v>0.921359806666667</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.95132185</v>
+        <v>0.9514154</v>
       </c>
       <c r="R17" t="n">
         <v>53</v>
       </c>
       <c r="S17" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T17" t="n">
         <v>0.897080026666667</v>
       </c>
       <c r="U17" t="n">
-        <v>0.94645805</v>
+        <v>0.9513269</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
       </c>
       <c r="W17" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="X17" t="n">
         <v>0.849680253333333</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z17" t="n">
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AB17" t="n">
         <v>32</v>
       </c>
       <c r="AC17" t="n">
-        <v>43.2</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="18">
@@ -2386,7 +2386,7 @@
         <v>0.817564273333333</v>
       </c>
       <c r="I18" t="n">
-        <v>0.81634</v>
+        <v>0.8151157</v>
       </c>
       <c r="J18" t="n">
         <v>35</v>
@@ -2398,55 +2398,55 @@
         <v>0.92060794</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9325514</v>
+        <v>0.9331922</v>
       </c>
       <c r="N18" t="n">
         <v>35</v>
       </c>
       <c r="O18" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P18" t="n">
         <v>0.939266466666667</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.95178825</v>
+        <v>0.952748</v>
       </c>
       <c r="R18" t="n">
         <v>35</v>
       </c>
       <c r="S18" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="T18" t="n">
         <v>0.886753006666667</v>
       </c>
       <c r="U18" t="n">
-        <v>0.94843755</v>
+        <v>0.9531371</v>
       </c>
       <c r="V18" t="n">
         <v>51</v>
       </c>
       <c r="W18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
         <v>0.822907853333333</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Z18" t="n">
         <v>63</v>
       </c>
       <c r="AA18" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="n">
         <v>43.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="19">
@@ -2475,7 +2475,7 @@
         <v>0.818234233333333</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8176218</v>
+        <v>0.8170094</v>
       </c>
       <c r="J19" t="n">
         <v>22</v>
@@ -2487,55 +2487,55 @@
         <v>0.921099766666667</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9327611</v>
+        <v>0.9331978</v>
       </c>
       <c r="N19" t="n">
         <v>17</v>
       </c>
       <c r="O19" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="P19" t="n">
         <v>0.939624466666667</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.95196405</v>
+        <v>0.9527455</v>
       </c>
       <c r="R19" t="n">
         <v>19</v>
       </c>
       <c r="S19" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="T19" t="n">
         <v>0.886736993333333</v>
       </c>
       <c r="U19" t="n">
-        <v>0.9480065</v>
+        <v>0.9523597</v>
       </c>
       <c r="V19" t="n">
         <v>52</v>
       </c>
       <c r="W19" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="X19" t="n">
         <v>0.82307674</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.9400746</v>
+        <v>0.9419184</v>
       </c>
       <c r="Z19" t="n">
         <v>52</v>
       </c>
       <c r="AA19" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="AB19" t="n">
         <v>32.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>24</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="20">
@@ -2564,67 +2564,67 @@
         <v>0.76752816</v>
       </c>
       <c r="I20" t="n">
-        <v>0.791099</v>
+        <v>0.7945161</v>
       </c>
       <c r="J20" t="n">
         <v>53</v>
       </c>
       <c r="K20" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L20" t="n">
         <v>0.88683022</v>
       </c>
       <c r="M20" t="n">
-        <v>0.93031915</v>
+        <v>0.9309133</v>
       </c>
       <c r="N20" t="n">
         <v>52</v>
       </c>
       <c r="O20" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P20" t="n">
         <v>0.921360353333333</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.95132185</v>
+        <v>0.9514154</v>
       </c>
       <c r="R20" t="n">
         <v>52</v>
       </c>
       <c r="S20" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T20" t="n">
         <v>0.896828933333333</v>
       </c>
       <c r="U20" t="n">
-        <v>0.94497625</v>
+        <v>0.9510693</v>
       </c>
       <c r="V20" t="n">
         <v>4</v>
       </c>
       <c r="W20" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="X20" t="n">
         <v>0.84953364</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z20" t="n">
         <v>3</v>
       </c>
       <c r="AA20" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AB20" t="n">
         <v>32.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>47</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="21">
@@ -2653,7 +2653,7 @@
         <v>0.817466153333333</v>
       </c>
       <c r="I21" t="n">
-        <v>0.81627155</v>
+        <v>0.8150769</v>
       </c>
       <c r="J21" t="n">
         <v>36</v>
@@ -2665,55 +2665,55 @@
         <v>0.92036156</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9325514</v>
+        <v>0.9331922</v>
       </c>
       <c r="N21" t="n">
         <v>36</v>
       </c>
       <c r="O21" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P21" t="n">
         <v>0.939068306666667</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.95178825</v>
+        <v>0.952748</v>
       </c>
       <c r="R21" t="n">
         <v>36</v>
       </c>
       <c r="S21" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="T21" t="n">
         <v>0.886691713333333</v>
       </c>
       <c r="U21" t="n">
-        <v>0.94797785</v>
+        <v>0.9531371</v>
       </c>
       <c r="V21" t="n">
         <v>56</v>
       </c>
       <c r="W21" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
         <v>0.8228244</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Z21" t="n">
         <v>64</v>
       </c>
       <c r="AA21" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="n">
         <v>45.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>40.4</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="22">
@@ -2742,67 +2742,67 @@
         <v>0.818168253333333</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8175921</v>
+        <v>0.8170159</v>
       </c>
       <c r="J22" t="n">
         <v>26</v>
       </c>
       <c r="K22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L22" t="n">
         <v>0.921106726666667</v>
       </c>
       <c r="M22" t="n">
-        <v>0.93277335</v>
+        <v>0.9332223</v>
       </c>
       <c r="N22" t="n">
         <v>15</v>
       </c>
       <c r="O22" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="P22" t="n">
         <v>0.939629793333333</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.9519696</v>
+        <v>0.9527572</v>
       </c>
       <c r="R22" t="n">
         <v>18</v>
       </c>
       <c r="S22" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="T22" t="n">
         <v>0.886768053333333</v>
       </c>
       <c r="U22" t="n">
-        <v>0.94826125</v>
+        <v>0.9526186</v>
       </c>
       <c r="V22" t="n">
         <v>50</v>
       </c>
       <c r="W22" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="X22" t="n">
         <v>0.823115853333333</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.9400746</v>
+        <v>0.9419184</v>
       </c>
       <c r="Z22" t="n">
         <v>50</v>
       </c>
       <c r="AA22" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="AB22" t="n">
         <v>31.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>20.4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -2831,67 +2831,67 @@
         <v>0.767103813333333</v>
       </c>
       <c r="I23" t="n">
-        <v>0.79117725</v>
+        <v>0.7946064</v>
       </c>
       <c r="J23" t="n">
         <v>54</v>
       </c>
       <c r="K23" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L23" t="n">
         <v>0.886698526666667</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9303568</v>
+        <v>0.9309536</v>
       </c>
       <c r="N23" t="n">
         <v>54</v>
       </c>
       <c r="O23" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" t="n">
         <v>0.921316026666667</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.95133965</v>
+        <v>0.9514356</v>
       </c>
       <c r="R23" t="n">
         <v>54</v>
       </c>
       <c r="S23" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T23" t="n">
         <v>0.896828933333333</v>
       </c>
       <c r="U23" t="n">
-        <v>0.94497625</v>
+        <v>0.9510693</v>
       </c>
       <c r="V23" t="n">
         <v>5</v>
       </c>
       <c r="W23" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="X23" t="n">
         <v>0.84953364</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z23" t="n">
         <v>4</v>
       </c>
       <c r="AA23" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AB23" t="n">
         <v>34.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>46.2</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="24">
@@ -2920,7 +2920,7 @@
         <v>0.817466153333333</v>
       </c>
       <c r="I24" t="n">
-        <v>0.81627155</v>
+        <v>0.8150769</v>
       </c>
       <c r="J24" t="n">
         <v>37</v>
@@ -2932,55 +2932,55 @@
         <v>0.92036156</v>
       </c>
       <c r="M24" t="n">
-        <v>0.9325514</v>
+        <v>0.9331922</v>
       </c>
       <c r="N24" t="n">
         <v>37</v>
       </c>
       <c r="O24" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P24" t="n">
         <v>0.939068306666667</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.95178825</v>
+        <v>0.952748</v>
       </c>
       <c r="R24" t="n">
         <v>37</v>
       </c>
       <c r="S24" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="T24" t="n">
         <v>0.886691713333333</v>
       </c>
       <c r="U24" t="n">
-        <v>0.94797785</v>
+        <v>0.9531371</v>
       </c>
       <c r="V24" t="n">
         <v>57</v>
       </c>
       <c r="W24" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="X24" t="n">
         <v>0.8228244</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Z24" t="n">
         <v>65</v>
       </c>
       <c r="AA24" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="n">
         <v>46.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>41.4</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="25">
@@ -3009,67 +3009,67 @@
         <v>0.818255993333333</v>
       </c>
       <c r="I25" t="n">
-        <v>0.81764245</v>
+        <v>0.8170289</v>
       </c>
       <c r="J25" t="n">
         <v>12</v>
       </c>
       <c r="K25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L25" t="n">
         <v>0.92108766</v>
       </c>
       <c r="M25" t="n">
-        <v>0.93277645</v>
+        <v>0.9332395</v>
       </c>
       <c r="N25" t="n">
         <v>21</v>
       </c>
       <c r="O25" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="P25" t="n">
         <v>0.939617666666667</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.9519713</v>
+        <v>0.9527654</v>
       </c>
       <c r="R25" t="n">
         <v>22</v>
       </c>
       <c r="S25" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T25" t="n">
         <v>0.886681353333333</v>
       </c>
       <c r="U25" t="n">
-        <v>0.9480065</v>
+        <v>0.9523597</v>
       </c>
       <c r="V25" t="n">
         <v>64</v>
       </c>
       <c r="W25" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="X25" t="n">
         <v>0.823052533333333</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.94004165</v>
+        <v>0.9418525</v>
       </c>
       <c r="Z25" t="n">
         <v>58</v>
       </c>
       <c r="AA25" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="AB25" t="n">
         <v>35.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>21.2</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="26">
@@ -3098,19 +3098,19 @@
         <v>0.7668109</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7913111</v>
+        <v>0.7948621</v>
       </c>
       <c r="J26" t="n">
         <v>55</v>
       </c>
       <c r="K26" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L26" t="n">
         <v>0.886661013333333</v>
       </c>
       <c r="M26" t="n">
-        <v>0.9301324</v>
+        <v>0.9304895</v>
       </c>
       <c r="N26" t="n">
         <v>55</v>
@@ -3122,43 +3122,43 @@
         <v>0.92129776</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.95122595</v>
+        <v>0.9512535</v>
       </c>
       <c r="R26" t="n">
         <v>55</v>
       </c>
       <c r="S26" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T26" t="n">
         <v>0.896787906666667</v>
       </c>
       <c r="U26" t="n">
-        <v>0.94485395</v>
+        <v>0.9510693</v>
       </c>
       <c r="V26" t="n">
         <v>6</v>
       </c>
       <c r="W26" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="X26" t="n">
         <v>0.849520146666667</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z26" t="n">
         <v>5</v>
       </c>
       <c r="AA26" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AB26" t="n">
         <v>35.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>47.6</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="27">
@@ -3187,7 +3187,7 @@
         <v>0.817466153333333</v>
       </c>
       <c r="I27" t="n">
-        <v>0.81627155</v>
+        <v>0.8150769</v>
       </c>
       <c r="J27" t="n">
         <v>38</v>
@@ -3199,55 +3199,55 @@
         <v>0.92036156</v>
       </c>
       <c r="M27" t="n">
-        <v>0.9325514</v>
+        <v>0.9331922</v>
       </c>
       <c r="N27" t="n">
         <v>38</v>
       </c>
       <c r="O27" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P27" t="n">
         <v>0.939068306666667</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.95178825</v>
+        <v>0.952748</v>
       </c>
       <c r="R27" t="n">
         <v>38</v>
       </c>
       <c r="S27" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="T27" t="n">
         <v>0.886691713333333</v>
       </c>
       <c r="U27" t="n">
-        <v>0.94797785</v>
+        <v>0.9531371</v>
       </c>
       <c r="V27" t="n">
         <v>58</v>
       </c>
       <c r="W27" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="X27" t="n">
         <v>0.8228244</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Z27" t="n">
         <v>66</v>
       </c>
       <c r="AA27" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AB27" t="n">
         <v>47.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>42.4</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="28">
@@ -3276,31 +3276,31 @@
         <v>0.818251206666667</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8176271</v>
+        <v>0.817003</v>
       </c>
       <c r="J28" t="n">
         <v>15</v>
       </c>
       <c r="K28" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L28" t="n">
         <v>0.92111916</v>
       </c>
       <c r="M28" t="n">
-        <v>0.9327749</v>
+        <v>0.9332684</v>
       </c>
       <c r="N28" t="n">
         <v>7</v>
       </c>
       <c r="O28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P28" t="n">
         <v>0.93963382</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.9519689</v>
+        <v>0.9527795</v>
       </c>
       <c r="R28" t="n">
         <v>17</v>
@@ -3312,31 +3312,31 @@
         <v>0.886733886666667</v>
       </c>
       <c r="U28" t="n">
-        <v>0.9481318</v>
+        <v>0.9523597</v>
       </c>
       <c r="V28" t="n">
         <v>55</v>
       </c>
       <c r="W28" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="X28" t="n">
         <v>0.8231012</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.94004165</v>
+        <v>0.9418525</v>
       </c>
       <c r="Z28" t="n">
         <v>51</v>
       </c>
       <c r="AA28" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="AB28" t="n">
         <v>29</v>
       </c>
       <c r="AC28" t="n">
-        <v>21.4</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="29">
@@ -3365,67 +3365,67 @@
         <v>0.76641662</v>
       </c>
       <c r="I29" t="n">
-        <v>0.79136225</v>
+        <v>0.7949343</v>
       </c>
       <c r="J29" t="n">
         <v>56</v>
       </c>
       <c r="K29" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L29" t="n">
         <v>0.88635544</v>
       </c>
       <c r="M29" t="n">
-        <v>0.9301232</v>
+        <v>0.9304895</v>
       </c>
       <c r="N29" t="n">
         <v>56</v>
       </c>
       <c r="O29" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>0.921142333333333</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.95122215</v>
+        <v>0.9512459</v>
       </c>
       <c r="R29" t="n">
         <v>56</v>
       </c>
       <c r="S29" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T29" t="n">
         <v>0.896771613333333</v>
       </c>
       <c r="U29" t="n">
-        <v>0.94473175</v>
+        <v>0.9510693</v>
       </c>
       <c r="V29" t="n">
         <v>7</v>
       </c>
       <c r="W29" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X29" t="n">
         <v>0.849509786666667</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z29" t="n">
         <v>6</v>
       </c>
       <c r="AA29" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AB29" t="n">
         <v>36.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>47</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="30">
@@ -3454,7 +3454,7 @@
         <v>0.817466153333333</v>
       </c>
       <c r="I30" t="n">
-        <v>0.81627155</v>
+        <v>0.8150769</v>
       </c>
       <c r="J30" t="n">
         <v>39</v>
@@ -3466,55 +3466,55 @@
         <v>0.92036156</v>
       </c>
       <c r="M30" t="n">
-        <v>0.9325514</v>
+        <v>0.9331922</v>
       </c>
       <c r="N30" t="n">
         <v>39</v>
       </c>
       <c r="O30" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P30" t="n">
         <v>0.939068306666667</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.95178825</v>
+        <v>0.952748</v>
       </c>
       <c r="R30" t="n">
         <v>39</v>
       </c>
       <c r="S30" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T30" t="n">
         <v>0.886691713333333</v>
       </c>
       <c r="U30" t="n">
-        <v>0.94797785</v>
+        <v>0.9531371</v>
       </c>
       <c r="V30" t="n">
         <v>59</v>
       </c>
       <c r="W30" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="X30" t="n">
         <v>0.8228244</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Z30" t="n">
         <v>67</v>
       </c>
       <c r="AA30" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AB30" t="n">
         <v>48.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>43.4</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="31">
@@ -3543,67 +3543,67 @@
         <v>0.818302673333333</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8176787</v>
+        <v>0.8170547</v>
       </c>
       <c r="J31" t="n">
         <v>9</v>
       </c>
       <c r="K31" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L31" t="n">
         <v>0.921093906666667</v>
       </c>
       <c r="M31" t="n">
-        <v>0.9327485</v>
+        <v>0.9332242</v>
       </c>
       <c r="N31" t="n">
         <v>20</v>
       </c>
       <c r="O31" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P31" t="n">
         <v>0.939619206666667</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.95195585</v>
+        <v>0.9527568</v>
       </c>
       <c r="R31" t="n">
         <v>20</v>
       </c>
       <c r="S31" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="T31" t="n">
         <v>0.886684666666667</v>
       </c>
       <c r="U31" t="n">
-        <v>0.9480065</v>
+        <v>0.9523597</v>
       </c>
       <c r="V31" t="n">
         <v>62</v>
       </c>
       <c r="W31" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="X31" t="n">
         <v>0.823073986666667</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.94004165</v>
+        <v>0.9418525</v>
       </c>
       <c r="Z31" t="n">
         <v>53</v>
       </c>
       <c r="AA31" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="AB31" t="n">
         <v>32.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -3632,67 +3632,67 @@
         <v>0.76637618</v>
       </c>
       <c r="I32" t="n">
-        <v>0.79136225</v>
+        <v>0.7949343</v>
       </c>
       <c r="J32" t="n">
         <v>57</v>
       </c>
       <c r="K32" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L32" t="n">
         <v>0.886346073333333</v>
       </c>
       <c r="M32" t="n">
-        <v>0.9301235</v>
+        <v>0.9304895</v>
       </c>
       <c r="N32" t="n">
         <v>57</v>
       </c>
       <c r="O32" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P32" t="n">
         <v>0.921137533333333</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.9512228</v>
+        <v>0.9512472</v>
       </c>
       <c r="R32" t="n">
         <v>57</v>
       </c>
       <c r="S32" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T32" t="n">
         <v>0.896771613333333</v>
       </c>
       <c r="U32" t="n">
-        <v>0.94473175</v>
+        <v>0.9510693</v>
       </c>
       <c r="V32" t="n">
         <v>8</v>
       </c>
       <c r="W32" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="X32" t="n">
         <v>0.849509786666667</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z32" t="n">
         <v>7</v>
       </c>
       <c r="AA32" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AB32" t="n">
         <v>37.2</v>
       </c>
       <c r="AC32" t="n">
-        <v>47.2</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="33">
@@ -3721,7 +3721,7 @@
         <v>0.817466153333333</v>
       </c>
       <c r="I33" t="n">
-        <v>0.81627155</v>
+        <v>0.8150769</v>
       </c>
       <c r="J33" t="n">
         <v>40</v>
@@ -3733,55 +3733,55 @@
         <v>0.92036156</v>
       </c>
       <c r="M33" t="n">
-        <v>0.9325514</v>
+        <v>0.9331922</v>
       </c>
       <c r="N33" t="n">
         <v>40</v>
       </c>
       <c r="O33" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P33" t="n">
         <v>0.939068306666667</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.95178825</v>
+        <v>0.952748</v>
       </c>
       <c r="R33" t="n">
         <v>40</v>
       </c>
       <c r="S33" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T33" t="n">
         <v>0.886691713333333</v>
       </c>
       <c r="U33" t="n">
-        <v>0.94797785</v>
+        <v>0.9531371</v>
       </c>
       <c r="V33" t="n">
         <v>60</v>
       </c>
       <c r="W33" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="X33" t="n">
         <v>0.8228244</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Z33" t="n">
         <v>68</v>
       </c>
       <c r="AA33" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AB33" t="n">
         <v>49.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>44.4</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="34">
@@ -3810,67 +3810,67 @@
         <v>0.81828782</v>
       </c>
       <c r="I34" t="n">
-        <v>0.81767775</v>
+        <v>0.8170677</v>
       </c>
       <c r="J34" t="n">
         <v>10</v>
       </c>
       <c r="K34" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L34" t="n">
         <v>0.921080633333333</v>
       </c>
       <c r="M34" t="n">
-        <v>0.9327221</v>
+        <v>0.9331978</v>
       </c>
       <c r="N34" t="n">
         <v>22</v>
       </c>
       <c r="O34" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P34" t="n">
         <v>0.939611593333333</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.9519408</v>
+        <v>0.9527436</v>
       </c>
       <c r="R34" t="n">
         <v>23</v>
       </c>
       <c r="S34" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="T34" t="n">
         <v>0.886684666666667</v>
       </c>
       <c r="U34" t="n">
-        <v>0.9480065</v>
+        <v>0.9523597</v>
       </c>
       <c r="V34" t="n">
         <v>63</v>
       </c>
       <c r="W34" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="X34" t="n">
         <v>0.823073986666667</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.94004165</v>
+        <v>0.9418525</v>
       </c>
       <c r="Z34" t="n">
         <v>54</v>
       </c>
       <c r="AA34" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AB34" t="n">
         <v>34.4</v>
       </c>
       <c r="AC34" t="n">
-        <v>28.8</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="35">
@@ -3899,19 +3899,19 @@
         <v>0.766368133333333</v>
       </c>
       <c r="I35" t="n">
-        <v>0.79136225</v>
+        <v>0.7949343</v>
       </c>
       <c r="J35" t="n">
         <v>58</v>
       </c>
       <c r="K35" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L35" t="n">
         <v>0.886343306666667</v>
       </c>
       <c r="M35" t="n">
-        <v>0.93012165</v>
+        <v>0.9304895</v>
       </c>
       <c r="N35" t="n">
         <v>58</v>
@@ -3923,43 +3923,43 @@
         <v>0.921136113333333</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.95122185</v>
+        <v>0.9512453</v>
       </c>
       <c r="R35" t="n">
         <v>58</v>
       </c>
       <c r="S35" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T35" t="n">
         <v>0.896771613333333</v>
       </c>
       <c r="U35" t="n">
-        <v>0.94473175</v>
+        <v>0.9510693</v>
       </c>
       <c r="V35" t="n">
         <v>9</v>
       </c>
       <c r="W35" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X35" t="n">
         <v>0.849509786666667</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z35" t="n">
         <v>8</v>
       </c>
       <c r="AA35" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AB35" t="n">
         <v>38.2</v>
       </c>
       <c r="AC35" t="n">
-        <v>48.6</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="36">
@@ -3988,7 +3988,7 @@
         <v>0.817466153333333</v>
       </c>
       <c r="I36" t="n">
-        <v>0.81627155</v>
+        <v>0.8150769</v>
       </c>
       <c r="J36" t="n">
         <v>41</v>
@@ -4000,55 +4000,55 @@
         <v>0.92036156</v>
       </c>
       <c r="M36" t="n">
-        <v>0.9325514</v>
+        <v>0.9331922</v>
       </c>
       <c r="N36" t="n">
         <v>41</v>
       </c>
       <c r="O36" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P36" t="n">
         <v>0.939068306666667</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.95178825</v>
+        <v>0.952748</v>
       </c>
       <c r="R36" t="n">
         <v>41</v>
       </c>
       <c r="S36" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="T36" t="n">
         <v>0.886691713333333</v>
       </c>
       <c r="U36" t="n">
-        <v>0.94797785</v>
+        <v>0.9531371</v>
       </c>
       <c r="V36" t="n">
         <v>61</v>
       </c>
       <c r="W36" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="X36" t="n">
         <v>0.8228244</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Z36" t="n">
         <v>69</v>
       </c>
       <c r="AA36" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AB36" t="n">
         <v>50.6</v>
       </c>
       <c r="AC36" t="n">
-        <v>45.4</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="37">
@@ -4077,43 +4077,43 @@
         <v>0.81809978</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8183469</v>
+        <v>0.818594</v>
       </c>
       <c r="J37" t="n">
         <v>29</v>
       </c>
       <c r="K37" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
         <v>0.9210279</v>
       </c>
       <c r="M37" t="n">
-        <v>0.9327083</v>
+        <v>0.9331843</v>
       </c>
       <c r="N37" t="n">
         <v>28</v>
       </c>
       <c r="O37" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P37" t="n">
         <v>0.939582046666667</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.9519332</v>
+        <v>0.9527326</v>
       </c>
       <c r="R37" t="n">
         <v>28</v>
       </c>
       <c r="S37" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="T37" t="n">
         <v>0.886641893333333</v>
       </c>
       <c r="U37" t="n">
-        <v>0.9477562</v>
+        <v>0.9523597</v>
       </c>
       <c r="V37" t="n">
         <v>69</v>
@@ -4125,19 +4125,19 @@
         <v>0.823049313333333</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.94004165</v>
+        <v>0.9418525</v>
       </c>
       <c r="Z37" t="n">
         <v>59</v>
       </c>
       <c r="AA37" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AB37" t="n">
         <v>42.6</v>
       </c>
       <c r="AC37" t="n">
-        <v>31.8</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="38">
@@ -4166,19 +4166,19 @@
         <v>0.766368133333333</v>
       </c>
       <c r="I38" t="n">
-        <v>0.79136225</v>
+        <v>0.7949343</v>
       </c>
       <c r="J38" t="n">
         <v>59</v>
       </c>
       <c r="K38" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L38" t="n">
         <v>0.886343226666667</v>
       </c>
       <c r="M38" t="n">
-        <v>0.93012165</v>
+        <v>0.9304895</v>
       </c>
       <c r="N38" t="n">
         <v>59</v>
@@ -4190,43 +4190,43 @@
         <v>0.92113264</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.95122185</v>
+        <v>0.9512453</v>
       </c>
       <c r="R38" t="n">
         <v>59</v>
       </c>
       <c r="S38" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T38" t="n">
         <v>0.896678446666667</v>
       </c>
       <c r="U38" t="n">
-        <v>0.9442179</v>
+        <v>0.9500416</v>
       </c>
       <c r="V38" t="n">
         <v>11</v>
       </c>
       <c r="W38" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X38" t="n">
         <v>0.84946558</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z38" t="n">
         <v>11</v>
       </c>
       <c r="AA38" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AB38" t="n">
         <v>39.8</v>
       </c>
       <c r="AC38" t="n">
-        <v>50.4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39">
@@ -4255,7 +4255,7 @@
         <v>0.817100246666667</v>
       </c>
       <c r="I39" t="n">
-        <v>0.81523985</v>
+        <v>0.8133795</v>
       </c>
       <c r="J39" t="n">
         <v>42</v>
@@ -4267,55 +4267,55 @@
         <v>0.920028846666667</v>
       </c>
       <c r="M39" t="n">
-        <v>0.9325465</v>
+        <v>0.9331922</v>
       </c>
       <c r="N39" t="n">
         <v>42</v>
       </c>
       <c r="O39" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P39" t="n">
         <v>0.938892686666667</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.95178795</v>
+        <v>0.952748</v>
       </c>
       <c r="R39" t="n">
         <v>42</v>
       </c>
       <c r="S39" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="T39" t="n">
         <v>0.886736226666667</v>
       </c>
       <c r="U39" t="n">
-        <v>0.94845705</v>
+        <v>0.9531371</v>
       </c>
       <c r="V39" t="n">
         <v>53</v>
       </c>
       <c r="W39" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X39" t="n">
         <v>0.82281894</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Z39" t="n">
         <v>70</v>
       </c>
       <c r="AA39" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AB39" t="n">
         <v>49.8</v>
       </c>
       <c r="AC39" t="n">
-        <v>41.8</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="40">
@@ -4344,43 +4344,43 @@
         <v>0.8182591</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8181226</v>
+        <v>0.8179861</v>
       </c>
       <c r="J40" t="n">
         <v>11</v>
       </c>
       <c r="K40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L40" t="n">
         <v>0.921040346666667</v>
       </c>
       <c r="M40" t="n">
-        <v>0.9327126</v>
+        <v>0.9331978</v>
       </c>
       <c r="N40" t="n">
         <v>26</v>
       </c>
       <c r="O40" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P40" t="n">
         <v>0.93958838</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.95193475</v>
+        <v>0.9527386</v>
       </c>
       <c r="R40" t="n">
         <v>26</v>
       </c>
       <c r="S40" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="T40" t="n">
         <v>0.886651293333333</v>
       </c>
       <c r="U40" t="n">
-        <v>0.9477562</v>
+        <v>0.9523597</v>
       </c>
       <c r="V40" t="n">
         <v>66</v>
@@ -4392,19 +4392,19 @@
         <v>0.823053366666667</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.94004165</v>
+        <v>0.9418525</v>
       </c>
       <c r="Z40" t="n">
         <v>55</v>
       </c>
       <c r="AA40" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AB40" t="n">
         <v>36.8</v>
       </c>
       <c r="AC40" t="n">
-        <v>32</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="41">
@@ -4433,19 +4433,19 @@
         <v>0.766368133333333</v>
       </c>
       <c r="I41" t="n">
-        <v>0.79136225</v>
+        <v>0.7949343</v>
       </c>
       <c r="J41" t="n">
         <v>60</v>
       </c>
       <c r="K41" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L41" t="n">
         <v>0.886343226666667</v>
       </c>
       <c r="M41" t="n">
-        <v>0.93012165</v>
+        <v>0.9304895</v>
       </c>
       <c r="N41" t="n">
         <v>60</v>
@@ -4457,43 +4457,43 @@
         <v>0.92113264</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.95122185</v>
+        <v>0.9512453</v>
       </c>
       <c r="R41" t="n">
         <v>60</v>
       </c>
       <c r="S41" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T41" t="n">
         <v>0.896678446666667</v>
       </c>
       <c r="U41" t="n">
-        <v>0.9442179</v>
+        <v>0.9500416</v>
       </c>
       <c r="V41" t="n">
         <v>12</v>
       </c>
       <c r="W41" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="X41" t="n">
         <v>0.84946558</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z41" t="n">
         <v>12</v>
       </c>
       <c r="AA41" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AB41" t="n">
         <v>40.8</v>
       </c>
       <c r="AC41" t="n">
-        <v>51.4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42">
@@ -4522,7 +4522,7 @@
         <v>0.817099533333333</v>
       </c>
       <c r="I42" t="n">
-        <v>0.8152395</v>
+        <v>0.8133795</v>
       </c>
       <c r="J42" t="n">
         <v>43</v>
@@ -4534,55 +4534,55 @@
         <v>0.92002852</v>
       </c>
       <c r="M42" t="n">
-        <v>0.93254835</v>
+        <v>0.9331959</v>
       </c>
       <c r="N42" t="n">
         <v>43</v>
       </c>
       <c r="O42" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P42" t="n">
         <v>0.93889246</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.9517894</v>
+        <v>0.9527509</v>
       </c>
       <c r="R42" t="n">
         <v>43</v>
       </c>
       <c r="S42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T42" t="n">
         <v>0.886736226666667</v>
       </c>
       <c r="U42" t="n">
-        <v>0.94845705</v>
+        <v>0.9531371</v>
       </c>
       <c r="V42" t="n">
         <v>54</v>
       </c>
       <c r="W42" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="X42" t="n">
         <v>0.82281894</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Z42" t="n">
         <v>71</v>
       </c>
       <c r="AA42" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AB42" t="n">
         <v>50.8</v>
       </c>
       <c r="AC42" t="n">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="43">
@@ -4611,43 +4611,43 @@
         <v>0.818106726666667</v>
       </c>
       <c r="I43" t="n">
-        <v>0.8183989</v>
+        <v>0.8186911</v>
       </c>
       <c r="J43" t="n">
         <v>28</v>
       </c>
       <c r="K43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L43" t="n">
         <v>0.921034233333333</v>
       </c>
       <c r="M43" t="n">
-        <v>0.9327396</v>
+        <v>0.9332248</v>
       </c>
       <c r="N43" t="n">
         <v>27</v>
       </c>
       <c r="O43" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P43" t="n">
         <v>0.93958536</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.951948</v>
+        <v>0.9527521</v>
       </c>
       <c r="R43" t="n">
         <v>27</v>
       </c>
       <c r="S43" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="T43" t="n">
         <v>0.886651293333333</v>
       </c>
       <c r="U43" t="n">
-        <v>0.9477562</v>
+        <v>0.9523597</v>
       </c>
       <c r="V43" t="n">
         <v>67</v>
@@ -4659,19 +4659,19 @@
         <v>0.823053366666667</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.94004165</v>
+        <v>0.9418525</v>
       </c>
       <c r="Z43" t="n">
         <v>56</v>
       </c>
       <c r="AA43" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="AB43" t="n">
         <v>41</v>
       </c>
       <c r="AC43" t="n">
-        <v>27</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="44">
@@ -4700,19 +4700,19 @@
         <v>0.766368133333333</v>
       </c>
       <c r="I44" t="n">
-        <v>0.79136225</v>
+        <v>0.7949343</v>
       </c>
       <c r="J44" t="n">
         <v>61</v>
       </c>
       <c r="K44" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L44" t="n">
         <v>0.886343226666667</v>
       </c>
       <c r="M44" t="n">
-        <v>0.93012165</v>
+        <v>0.9304895</v>
       </c>
       <c r="N44" t="n">
         <v>61</v>
@@ -4724,43 +4724,43 @@
         <v>0.921130946666667</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.95122185</v>
+        <v>0.9512453</v>
       </c>
       <c r="R44" t="n">
         <v>61</v>
       </c>
       <c r="S44" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T44" t="n">
         <v>0.89664536</v>
       </c>
       <c r="U44" t="n">
-        <v>0.94409585</v>
+        <v>0.9500416</v>
       </c>
       <c r="V44" t="n">
         <v>13</v>
       </c>
       <c r="W44" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="X44" t="n">
         <v>0.849450813333333</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.94036605</v>
+        <v>0.942027</v>
       </c>
       <c r="Z44" t="n">
         <v>16</v>
       </c>
       <c r="AA44" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AB44" t="n">
         <v>42.4</v>
       </c>
       <c r="AC44" t="n">
-        <v>58.2</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="45">
@@ -4789,7 +4789,7 @@
         <v>0.817078886666667</v>
       </c>
       <c r="I45" t="n">
-        <v>0.81522275</v>
+        <v>0.8133666</v>
       </c>
       <c r="J45" t="n">
         <v>44</v>
@@ -4801,55 +4801,55 @@
         <v>0.919959933333333</v>
       </c>
       <c r="M45" t="n">
-        <v>0.93250475</v>
+        <v>0.9331959</v>
       </c>
       <c r="N45" t="n">
         <v>44</v>
       </c>
       <c r="O45" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="P45" t="n">
         <v>0.93876604</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.9517656</v>
+        <v>0.9527509</v>
       </c>
       <c r="R45" t="n">
         <v>44</v>
       </c>
       <c r="S45" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="T45" t="n">
         <v>0.886656913333333</v>
       </c>
       <c r="U45" t="n">
-        <v>0.94815295</v>
+        <v>0.9528347</v>
       </c>
       <c r="V45" t="n">
         <v>65</v>
       </c>
       <c r="W45" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X45" t="n">
         <v>0.822705213333333</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Z45" t="n">
         <v>72</v>
       </c>
       <c r="AA45" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AB45" t="n">
         <v>53.8</v>
       </c>
       <c r="AC45" t="n">
-        <v>45</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="46">
@@ -4878,43 +4878,43 @@
         <v>0.818087373333333</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8180529</v>
+        <v>0.8180184</v>
       </c>
       <c r="J46" t="n">
         <v>30</v>
       </c>
       <c r="K46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L46" t="n">
         <v>0.921022233333333</v>
       </c>
       <c r="M46" t="n">
-        <v>0.932739</v>
+        <v>0.9332481</v>
       </c>
       <c r="N46" t="n">
         <v>30</v>
       </c>
       <c r="O46" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P46" t="n">
         <v>0.939578933333333</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.95194845</v>
+        <v>0.9527647</v>
       </c>
       <c r="R46" t="n">
         <v>29</v>
       </c>
       <c r="S46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T46" t="n">
         <v>0.886651293333333</v>
       </c>
       <c r="U46" t="n">
-        <v>0.9477562</v>
+        <v>0.9523597</v>
       </c>
       <c r="V46" t="n">
         <v>68</v>
@@ -4926,19 +4926,19 @@
         <v>0.823053366666667</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.94004165</v>
+        <v>0.9418525</v>
       </c>
       <c r="Z46" t="n">
         <v>57</v>
       </c>
       <c r="AA46" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="AB46" t="n">
         <v>42.8</v>
       </c>
       <c r="AC46" t="n">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="47">
@@ -4967,19 +4967,19 @@
         <v>0.766368133333333</v>
       </c>
       <c r="I47" t="n">
-        <v>0.79136225</v>
+        <v>0.7949343</v>
       </c>
       <c r="J47" t="n">
         <v>62</v>
       </c>
       <c r="K47" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L47" t="n">
         <v>0.886343226666667</v>
       </c>
       <c r="M47" t="n">
-        <v>0.93012165</v>
+        <v>0.9304895</v>
       </c>
       <c r="N47" t="n">
         <v>62</v>
@@ -4991,43 +4991,43 @@
         <v>0.921130046666667</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.95122185</v>
+        <v>0.9512453</v>
       </c>
       <c r="R47" t="n">
         <v>62</v>
       </c>
       <c r="S47" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T47" t="n">
         <v>0.896603226666667</v>
       </c>
       <c r="U47" t="n">
-        <v>0.94384575</v>
+        <v>0.9497853</v>
       </c>
       <c r="V47" t="n">
         <v>14</v>
       </c>
       <c r="W47" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X47" t="n">
         <v>0.84945986</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.94033305</v>
+        <v>0.941961</v>
       </c>
       <c r="Z47" t="n">
         <v>13</v>
       </c>
       <c r="AA47" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="AB47" t="n">
         <v>42.6</v>
       </c>
       <c r="AC47" t="n">
-        <v>59.6</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="48">
@@ -5056,7 +5056,7 @@
         <v>0.81692404</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8151453</v>
+        <v>0.8133666</v>
       </c>
       <c r="J48" t="n">
         <v>45</v>
@@ -5068,7 +5068,7 @@
         <v>0.919800786666667</v>
       </c>
       <c r="M48" t="n">
-        <v>0.93210235</v>
+        <v>0.9331585</v>
       </c>
       <c r="N48" t="n">
         <v>45</v>
@@ -5080,43 +5080,43 @@
         <v>0.938651173333333</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.9515069</v>
+        <v>0.9527304</v>
       </c>
       <c r="R48" t="n">
         <v>46</v>
       </c>
       <c r="S48" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T48" t="n">
         <v>0.886614893333333</v>
       </c>
       <c r="U48" t="n">
-        <v>0.94815295</v>
+        <v>0.9528347</v>
       </c>
       <c r="V48" t="n">
         <v>71</v>
       </c>
       <c r="W48" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X48" t="n">
         <v>0.82262664</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Z48" t="n">
         <v>73</v>
       </c>
       <c r="AA48" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AB48" t="n">
         <v>56</v>
       </c>
       <c r="AC48" t="n">
-        <v>46</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="49">
@@ -5145,31 +5145,31 @@
         <v>0.81800794</v>
       </c>
       <c r="I49" t="n">
-        <v>0.8179679</v>
+        <v>0.8179279</v>
       </c>
       <c r="J49" t="n">
         <v>31</v>
       </c>
       <c r="K49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L49" t="n">
         <v>0.92099188</v>
       </c>
       <c r="M49" t="n">
-        <v>0.9327249</v>
+        <v>0.9332248</v>
       </c>
       <c r="N49" t="n">
         <v>31</v>
       </c>
       <c r="O49" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P49" t="n">
         <v>0.939562106666667</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.95193995</v>
+        <v>0.9527515</v>
       </c>
       <c r="R49" t="n">
         <v>30</v>
@@ -5181,31 +5181,31 @@
         <v>0.886608073333333</v>
       </c>
       <c r="U49" t="n">
-        <v>0.9476312</v>
+        <v>0.9523597</v>
       </c>
       <c r="V49" t="n">
         <v>73</v>
       </c>
       <c r="W49" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X49" t="n">
         <v>0.823029153333333</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.93998985</v>
+        <v>0.9418525</v>
       </c>
       <c r="Z49" t="n">
         <v>61</v>
       </c>
       <c r="AA49" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AB49" t="n">
         <v>45.2</v>
       </c>
       <c r="AC49" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="50">
@@ -5234,19 +5234,19 @@
         <v>0.766351526666667</v>
       </c>
       <c r="I50" t="n">
-        <v>0.79136225</v>
+        <v>0.7949343</v>
       </c>
       <c r="J50" t="n">
         <v>63</v>
       </c>
       <c r="K50" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L50" t="n">
         <v>0.886341106666667</v>
       </c>
       <c r="M50" t="n">
-        <v>0.93012165</v>
+        <v>0.9304895</v>
       </c>
       <c r="N50" t="n">
         <v>63</v>
@@ -5258,43 +5258,43 @@
         <v>0.921129186666667</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.95122185</v>
+        <v>0.9512453</v>
       </c>
       <c r="R50" t="n">
         <v>63</v>
       </c>
       <c r="S50" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T50" t="n">
         <v>0.896603226666667</v>
       </c>
       <c r="U50" t="n">
-        <v>0.94384575</v>
+        <v>0.9497853</v>
       </c>
       <c r="V50" t="n">
         <v>15</v>
       </c>
       <c r="W50" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X50" t="n">
         <v>0.84945986</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.94033305</v>
+        <v>0.941961</v>
       </c>
       <c r="Z50" t="n">
         <v>14</v>
       </c>
       <c r="AA50" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="AB50" t="n">
         <v>43.6</v>
       </c>
       <c r="AC50" t="n">
-        <v>60.6</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="51">
@@ -5323,7 +5323,7 @@
         <v>0.81692404</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8151453</v>
+        <v>0.8133666</v>
       </c>
       <c r="J51" t="n">
         <v>46</v>
@@ -5335,7 +5335,7 @@
         <v>0.919800786666667</v>
       </c>
       <c r="M51" t="n">
-        <v>0.93210235</v>
+        <v>0.9331585</v>
       </c>
       <c r="N51" t="n">
         <v>46</v>
@@ -5347,43 +5347,43 @@
         <v>0.938651173333333</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.9515069</v>
+        <v>0.9527304</v>
       </c>
       <c r="R51" t="n">
         <v>47</v>
       </c>
       <c r="S51" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T51" t="n">
         <v>0.886614893333333</v>
       </c>
       <c r="U51" t="n">
-        <v>0.94815295</v>
+        <v>0.9528347</v>
       </c>
       <c r="V51" t="n">
         <v>72</v>
       </c>
       <c r="W51" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X51" t="n">
         <v>0.82262664</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Z51" t="n">
         <v>74</v>
       </c>
       <c r="AA51" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AB51" t="n">
         <v>57</v>
       </c>
       <c r="AC51" t="n">
-        <v>47</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="52">
@@ -5412,67 +5412,67 @@
         <v>0.818432193333333</v>
       </c>
       <c r="I52" t="n">
-        <v>0.8180248</v>
+        <v>0.8176174</v>
       </c>
       <c r="J52" t="n">
         <v>7</v>
       </c>
       <c r="K52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L52" t="n">
         <v>0.921067806666667</v>
       </c>
       <c r="M52" t="n">
-        <v>0.93270275</v>
+        <v>0.9332027</v>
       </c>
       <c r="N52" t="n">
         <v>24</v>
       </c>
       <c r="O52" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P52" t="n">
         <v>0.939600746666667</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.95192875</v>
+        <v>0.9527398</v>
       </c>
       <c r="R52" t="n">
         <v>25</v>
       </c>
       <c r="S52" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="T52" t="n">
         <v>0.886608073333333</v>
       </c>
       <c r="U52" t="n">
-        <v>0.9476312</v>
+        <v>0.9523597</v>
       </c>
       <c r="V52" t="n">
         <v>74</v>
       </c>
       <c r="W52" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X52" t="n">
         <v>0.823029153333333</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.93998985</v>
+        <v>0.9418525</v>
       </c>
       <c r="Z52" t="n">
         <v>62</v>
       </c>
       <c r="AA52" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="AB52" t="n">
         <v>38.4</v>
       </c>
       <c r="AC52" t="n">
-        <v>36.8</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="53">
@@ -5501,19 +5501,19 @@
         <v>0.766351526666667</v>
       </c>
       <c r="I53" t="n">
-        <v>0.79136225</v>
+        <v>0.7949343</v>
       </c>
       <c r="J53" t="n">
         <v>64</v>
       </c>
       <c r="K53" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L53" t="n">
         <v>0.886341106666667</v>
       </c>
       <c r="M53" t="n">
-        <v>0.93012165</v>
+        <v>0.9304895</v>
       </c>
       <c r="N53" t="n">
         <v>64</v>
@@ -5525,43 +5525,43 @@
         <v>0.921129186666667</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.95122185</v>
+        <v>0.9512453</v>
       </c>
       <c r="R53" t="n">
         <v>64</v>
       </c>
       <c r="S53" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T53" t="n">
         <v>0.896603226666667</v>
       </c>
       <c r="U53" t="n">
-        <v>0.94384575</v>
+        <v>0.9497853</v>
       </c>
       <c r="V53" t="n">
         <v>16</v>
       </c>
       <c r="W53" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="X53" t="n">
         <v>0.84945986</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.94033305</v>
+        <v>0.941961</v>
       </c>
       <c r="Z53" t="n">
         <v>15</v>
       </c>
       <c r="AA53" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="AB53" t="n">
         <v>44.6</v>
       </c>
       <c r="AC53" t="n">
-        <v>61.6</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="54">
@@ -5590,7 +5590,7 @@
         <v>0.816755213333333</v>
       </c>
       <c r="I54" t="n">
-        <v>0.8150609</v>
+        <v>0.8133666</v>
       </c>
       <c r="J54" t="n">
         <v>47</v>
@@ -5602,19 +5602,19 @@
         <v>0.919466886666667</v>
       </c>
       <c r="M54" t="n">
-        <v>0.9306576</v>
+        <v>0.9308884</v>
       </c>
       <c r="N54" t="n">
         <v>47</v>
       </c>
       <c r="O54" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P54" t="n">
         <v>0.938014006666667</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.9499616</v>
+        <v>0.9501794</v>
       </c>
       <c r="R54" t="n">
         <v>49</v>
@@ -5626,31 +5626,31 @@
         <v>0.88605448</v>
       </c>
       <c r="U54" t="n">
-        <v>0.9440325</v>
+        <v>0.9510197</v>
       </c>
       <c r="V54" t="n">
         <v>90</v>
       </c>
       <c r="W54" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="X54" t="n">
         <v>0.82181536</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Z54" t="n">
         <v>90</v>
       </c>
       <c r="AA54" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AB54" t="n">
         <v>64.6</v>
       </c>
       <c r="AC54" t="n">
-        <v>64.8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55">
@@ -5679,67 +5679,67 @@
         <v>0.817821953333333</v>
       </c>
       <c r="I55" t="n">
-        <v>0.8172596</v>
+        <v>0.8166972</v>
       </c>
       <c r="J55" t="n">
         <v>33</v>
       </c>
       <c r="K55" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L55" t="n">
         <v>0.920938433333333</v>
       </c>
       <c r="M55" t="n">
-        <v>0.93268495</v>
+        <v>0.9332156</v>
       </c>
       <c r="N55" t="n">
         <v>32</v>
       </c>
       <c r="O55" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="P55" t="n">
         <v>0.939535046666667</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.9519198</v>
+        <v>0.9527474</v>
       </c>
       <c r="R55" t="n">
         <v>32</v>
       </c>
       <c r="S55" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="T55" t="n">
         <v>0.886638146666667</v>
       </c>
       <c r="U55" t="n">
-        <v>0.9477562</v>
+        <v>0.9523597</v>
       </c>
       <c r="V55" t="n">
         <v>70</v>
       </c>
       <c r="W55" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X55" t="n">
         <v>0.823046373333333</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.94004165</v>
+        <v>0.9418525</v>
       </c>
       <c r="Z55" t="n">
         <v>60</v>
       </c>
       <c r="AA55" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="AB55" t="n">
         <v>45.4</v>
       </c>
       <c r="AC55" t="n">
-        <v>39.2</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="56">
@@ -5768,19 +5768,19 @@
         <v>0.819471413333333</v>
       </c>
       <c r="I56" t="n">
-        <v>0.817377</v>
+        <v>0.8152826</v>
       </c>
       <c r="J56" t="n">
         <v>2</v>
       </c>
       <c r="K56" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L56" t="n">
         <v>0.921351253333333</v>
       </c>
       <c r="M56" t="n">
-        <v>0.93318135</v>
+        <v>0.9346081</v>
       </c>
       <c r="N56" t="n">
         <v>2</v>
@@ -5792,7 +5792,7 @@
         <v>0.9397669</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.95218035</v>
+        <v>0.9534702</v>
       </c>
       <c r="R56" t="n">
         <v>2</v>
@@ -5804,31 +5804,31 @@
         <v>0.89690558</v>
       </c>
       <c r="U56" t="n">
-        <v>0.9469584</v>
+        <v>0.9515847</v>
       </c>
       <c r="V56" t="n">
         <v>3</v>
       </c>
       <c r="W56" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X56" t="n">
         <v>0.8490355</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.94024665</v>
+        <v>0.9421589</v>
       </c>
       <c r="Z56" t="n">
         <v>43</v>
       </c>
       <c r="AA56" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="AB56" t="n">
         <v>10.4</v>
       </c>
       <c r="AC56" t="n">
-        <v>24.6</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="57">
@@ -5857,19 +5857,19 @@
         <v>0.819100426666667</v>
       </c>
       <c r="I57" t="n">
-        <v>0.81882135</v>
+        <v>0.8185423</v>
       </c>
       <c r="J57" t="n">
         <v>6</v>
       </c>
       <c r="K57" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L57" t="n">
         <v>0.9212817</v>
       </c>
       <c r="M57" t="n">
-        <v>0.9330727</v>
+        <v>0.9344583</v>
       </c>
       <c r="N57" t="n">
         <v>6</v>
@@ -5881,7 +5881,7 @@
         <v>0.93973178</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.9521246</v>
+        <v>0.953393</v>
       </c>
       <c r="R57" t="n">
         <v>6</v>
@@ -5893,31 +5893,31 @@
         <v>0.896537066666667</v>
       </c>
       <c r="U57" t="n">
-        <v>0.94683445</v>
+        <v>0.9515847</v>
       </c>
       <c r="V57" t="n">
         <v>17</v>
       </c>
       <c r="W57" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X57" t="n">
         <v>0.849040226666667</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.94039115</v>
+        <v>0.9421589</v>
       </c>
       <c r="Z57" t="n">
         <v>42</v>
       </c>
       <c r="AA57" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="AB57" t="n">
         <v>15.4</v>
       </c>
       <c r="AC57" t="n">
-        <v>17.8</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="58">
@@ -5946,19 +5946,19 @@
         <v>0.81943078</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8204127</v>
+        <v>0.8213946</v>
       </c>
       <c r="J58" t="n">
         <v>3</v>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
         <v>0.921350986666667</v>
       </c>
       <c r="M58" t="n">
-        <v>0.9329029</v>
+        <v>0.9341605</v>
       </c>
       <c r="N58" t="n">
         <v>3</v>
@@ -5970,7 +5970,7 @@
         <v>0.939765993333333</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.9520375</v>
+        <v>0.9532399</v>
       </c>
       <c r="R58" t="n">
         <v>3</v>
@@ -5982,31 +5982,31 @@
         <v>0.896192466666667</v>
       </c>
       <c r="U58" t="n">
-        <v>0.94671065</v>
+        <v>0.9515847</v>
       </c>
       <c r="V58" t="n">
         <v>20</v>
       </c>
       <c r="W58" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X58" t="n">
         <v>0.848959593333333</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.94028755</v>
+        <v>0.9421589</v>
       </c>
       <c r="Z58" t="n">
         <v>46</v>
       </c>
       <c r="AA58" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="AB58" t="n">
         <v>15</v>
       </c>
       <c r="AC58" t="n">
-        <v>19.8</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="59">
@@ -6035,67 +6035,67 @@
         <v>0.810207853333333</v>
       </c>
       <c r="I59" t="n">
-        <v>0.80490275</v>
+        <v>0.7995976</v>
       </c>
       <c r="J59" t="n">
         <v>48</v>
       </c>
       <c r="K59" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L59" t="n">
         <v>0.919355926666667</v>
       </c>
       <c r="M59" t="n">
-        <v>0.9327172</v>
+        <v>0.9338241</v>
       </c>
       <c r="N59" t="n">
         <v>48</v>
       </c>
       <c r="O59" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="P59" t="n">
         <v>0.93872802</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.95194185</v>
+        <v>0.9530672</v>
       </c>
       <c r="R59" t="n">
         <v>45</v>
       </c>
       <c r="S59" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="T59" t="n">
         <v>0.895948893333333</v>
       </c>
       <c r="U59" t="n">
-        <v>0.94658175</v>
+        <v>0.9513269</v>
       </c>
       <c r="V59" t="n">
         <v>23</v>
       </c>
       <c r="W59" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X59" t="n">
         <v>0.848911093333333</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.94028755</v>
+        <v>0.9421589</v>
       </c>
       <c r="Z59" t="n">
         <v>48</v>
       </c>
       <c r="AA59" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="AB59" t="n">
         <v>42.4</v>
       </c>
       <c r="AC59" t="n">
-        <v>38.6</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="60">
@@ -6124,19 +6124,19 @@
         <v>0.789216433333333</v>
       </c>
       <c r="I60" t="n">
-        <v>0.79165475</v>
+        <v>0.7940931</v>
       </c>
       <c r="J60" t="n">
         <v>50</v>
       </c>
       <c r="K60" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="L60" t="n">
         <v>0.912619113333333</v>
       </c>
       <c r="M60" t="n">
-        <v>0.92718875</v>
+        <v>0.9278482</v>
       </c>
       <c r="N60" t="n">
         <v>51</v>
@@ -6148,43 +6148,43 @@
         <v>0.935270813333333</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.95060035</v>
+        <v>0.9514192</v>
       </c>
       <c r="R60" t="n">
         <v>51</v>
       </c>
       <c r="S60" t="n">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="T60" t="n">
         <v>0.895797313333333</v>
       </c>
       <c r="U60" t="n">
-        <v>0.94658175</v>
+        <v>0.9513269</v>
       </c>
       <c r="V60" t="n">
         <v>25</v>
       </c>
       <c r="W60" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X60" t="n">
         <v>0.84887514</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.94028755</v>
+        <v>0.9421589</v>
       </c>
       <c r="Z60" t="n">
         <v>49</v>
       </c>
       <c r="AA60" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="AB60" t="n">
         <v>45.2</v>
       </c>
       <c r="AC60" t="n">
-        <v>54</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="61">
@@ -6213,7 +6213,7 @@
         <v>0.72285564</v>
       </c>
       <c r="I61" t="n">
-        <v>0.71511085</v>
+        <v>0.7073661</v>
       </c>
       <c r="J61" t="n">
         <v>66</v>
@@ -6225,7 +6225,7 @@
         <v>0.85413994</v>
       </c>
       <c r="M61" t="n">
-        <v>0.89486425</v>
+        <v>0.9157036</v>
       </c>
       <c r="N61" t="n">
         <v>66</v>
@@ -6237,7 +6237,7 @@
         <v>0.892981526666667</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.9332019</v>
+        <v>0.9438968</v>
       </c>
       <c r="R61" t="n">
         <v>66</v>
@@ -6249,31 +6249,31 @@
         <v>0.895765346666667</v>
       </c>
       <c r="U61" t="n">
-        <v>0.94645805</v>
+        <v>0.9513269</v>
       </c>
       <c r="V61" t="n">
         <v>26</v>
       </c>
       <c r="W61" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X61" t="n">
         <v>0.849508553333333</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z61" t="n">
         <v>9</v>
       </c>
       <c r="AA61" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB61" t="n">
         <v>46.6</v>
       </c>
       <c r="AC61" t="n">
-        <v>52</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="62">
@@ -6302,7 +6302,7 @@
         <v>0.710843413333333</v>
       </c>
       <c r="I62" t="n">
-        <v>0.6963511</v>
+        <v>0.6944635</v>
       </c>
       <c r="J62" t="n">
         <v>68</v>
@@ -6314,7 +6314,7 @@
         <v>0.84681056</v>
       </c>
       <c r="M62" t="n">
-        <v>0.87438095</v>
+        <v>0.9019513</v>
       </c>
       <c r="N62" t="n">
         <v>68</v>
@@ -6326,7 +6326,7 @@
         <v>0.887410513333333</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.92034225</v>
+        <v>0.9368157</v>
       </c>
       <c r="R62" t="n">
         <v>68</v>
@@ -6338,31 +6338,31 @@
         <v>0.89554294</v>
       </c>
       <c r="U62" t="n">
-        <v>0.9455895</v>
+        <v>0.9510693</v>
       </c>
       <c r="V62" t="n">
         <v>28</v>
       </c>
       <c r="W62" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="X62" t="n">
         <v>0.849399813333333</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z62" t="n">
         <v>18</v>
       </c>
       <c r="AA62" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AB62" t="n">
         <v>50</v>
       </c>
       <c r="AC62" t="n">
-        <v>54.8</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="63">
@@ -6391,19 +6391,19 @@
         <v>0.67294402</v>
       </c>
       <c r="I63" t="n">
-        <v>0.668229</v>
+        <v>0.663514</v>
       </c>
       <c r="J63" t="n">
         <v>70</v>
       </c>
       <c r="K63" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L63" t="n">
         <v>0.815700106666667</v>
       </c>
       <c r="M63" t="n">
-        <v>0.84406685</v>
+        <v>0.8533409</v>
       </c>
       <c r="N63" t="n">
         <v>70</v>
@@ -6415,7 +6415,7 @@
         <v>0.865727346666667</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.88928195</v>
+        <v>0.9119229</v>
       </c>
       <c r="R63" t="n">
         <v>70</v>
@@ -6427,31 +6427,31 @@
         <v>0.895479413333333</v>
       </c>
       <c r="U63" t="n">
-        <v>0.9457183</v>
+        <v>0.9513269</v>
       </c>
       <c r="V63" t="n">
         <v>31</v>
       </c>
       <c r="W63" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X63" t="n">
         <v>0.849393526666667</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z63" t="n">
         <v>20</v>
       </c>
       <c r="AA63" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AB63" t="n">
         <v>52.2</v>
       </c>
       <c r="AC63" t="n">
-        <v>55.4</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="64">
@@ -6480,7 +6480,7 @@
         <v>0.637467653333333</v>
       </c>
       <c r="I64" t="n">
-        <v>0.60895015</v>
+        <v>0.59356</v>
       </c>
       <c r="J64" t="n">
         <v>72</v>
@@ -6492,19 +6492,19 @@
         <v>0.79102672</v>
       </c>
       <c r="M64" t="n">
-        <v>0.82858445</v>
+        <v>0.8348872</v>
       </c>
       <c r="N64" t="n">
         <v>72</v>
       </c>
       <c r="O64" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P64" t="n">
         <v>0.8490033</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.88139395</v>
+        <v>0.8959935</v>
       </c>
       <c r="R64" t="n">
         <v>72</v>
@@ -6516,31 +6516,31 @@
         <v>0.89536596</v>
       </c>
       <c r="U64" t="n">
-        <v>0.9455954</v>
+        <v>0.9513269</v>
       </c>
       <c r="V64" t="n">
         <v>34</v>
       </c>
       <c r="W64" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="X64" t="n">
         <v>0.849358226666667</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z64" t="n">
         <v>23</v>
       </c>
       <c r="AA64" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AB64" t="n">
         <v>54.6</v>
       </c>
       <c r="AC64" t="n">
-        <v>57.2</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="65">
@@ -6569,7 +6569,7 @@
         <v>0.6142179</v>
       </c>
       <c r="I65" t="n">
-        <v>0.57612565</v>
+        <v>0.5757831</v>
       </c>
       <c r="J65" t="n">
         <v>74</v>
@@ -6581,7 +6581,7 @@
         <v>0.76482768</v>
       </c>
       <c r="M65" t="n">
-        <v>0.80569495</v>
+        <v>0.8250959</v>
       </c>
       <c r="N65" t="n">
         <v>74</v>
@@ -6593,7 +6593,7 @@
         <v>0.830623386666667</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.8722317</v>
+        <v>0.8775393</v>
       </c>
       <c r="R65" t="n">
         <v>74</v>
@@ -6605,31 +6605,31 @@
         <v>0.895280213333333</v>
       </c>
       <c r="U65" t="n">
-        <v>0.94547265</v>
+        <v>0.9513269</v>
       </c>
       <c r="V65" t="n">
         <v>35</v>
       </c>
       <c r="W65" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X65" t="n">
         <v>0.849327693333333</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z65" t="n">
         <v>25</v>
       </c>
       <c r="AA65" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AB65" t="n">
         <v>56.4</v>
       </c>
       <c r="AC65" t="n">
-        <v>59.4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66">
@@ -6658,7 +6658,7 @@
         <v>0.59709062</v>
       </c>
       <c r="I66" t="n">
-        <v>0.55616065</v>
+        <v>0.5497338</v>
       </c>
       <c r="J66" t="n">
         <v>76</v>
@@ -6670,7 +6670,7 @@
         <v>0.739066353333333</v>
       </c>
       <c r="M66" t="n">
-        <v>0.74566675</v>
+        <v>0.751787</v>
       </c>
       <c r="N66" t="n">
         <v>76</v>
@@ -6682,7 +6682,7 @@
         <v>0.809248386666667</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.85740055</v>
+        <v>0.8612387</v>
       </c>
       <c r="R66" t="n">
         <v>76</v>
@@ -6694,31 +6694,31 @@
         <v>0.895248106666667</v>
       </c>
       <c r="U66" t="n">
-        <v>0.94547265</v>
+        <v>0.9513269</v>
       </c>
       <c r="V66" t="n">
         <v>36</v>
       </c>
       <c r="W66" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="X66" t="n">
         <v>0.849316893333333</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z66" t="n">
         <v>26</v>
       </c>
       <c r="AA66" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AB66" t="n">
         <v>58</v>
       </c>
       <c r="AC66" t="n">
-        <v>61</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="67">
@@ -6747,7 +6747,7 @@
         <v>0.580567833333333</v>
       </c>
       <c r="I67" t="n">
-        <v>0.54633335</v>
+        <v>0.5397681</v>
       </c>
       <c r="J67" t="n">
         <v>78</v>
@@ -6759,7 +6759,7 @@
         <v>0.716286706666667</v>
       </c>
       <c r="M67" t="n">
-        <v>0.70960305</v>
+        <v>0.7029194</v>
       </c>
       <c r="N67" t="n">
         <v>78</v>
@@ -6771,7 +6771,7 @@
         <v>0.789315726666667</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.82411605</v>
+        <v>0.8329399</v>
       </c>
       <c r="R67" t="n">
         <v>78</v>
@@ -6783,31 +6783,31 @@
         <v>0.89523908</v>
       </c>
       <c r="U67" t="n">
-        <v>0.94547265</v>
+        <v>0.9513269</v>
       </c>
       <c r="V67" t="n">
         <v>37</v>
       </c>
       <c r="W67" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="X67" t="n">
         <v>0.849312813333333</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z67" t="n">
         <v>27</v>
       </c>
       <c r="AA67" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AB67" t="n">
         <v>59.6</v>
       </c>
       <c r="AC67" t="n">
-        <v>62.6</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="68">
@@ -6836,19 +6836,19 @@
         <v>0.574444653333333</v>
       </c>
       <c r="I68" t="n">
-        <v>0.54323655</v>
+        <v>0.5383429</v>
       </c>
       <c r="J68" t="n">
         <v>80</v>
       </c>
       <c r="K68" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L68" t="n">
         <v>0.707516506666667</v>
       </c>
       <c r="M68" t="n">
-        <v>0.7015819</v>
+        <v>0.6956473</v>
       </c>
       <c r="N68" t="n">
         <v>80</v>
@@ -6860,43 +6860,43 @@
         <v>0.780629453333333</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.80622755</v>
+        <v>0.828007</v>
       </c>
       <c r="R68" t="n">
         <v>80</v>
       </c>
       <c r="S68" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T68" t="n">
         <v>0.895003693333333</v>
       </c>
       <c r="U68" t="n">
-        <v>0.9442508</v>
+        <v>0.9500416</v>
       </c>
       <c r="V68" t="n">
         <v>42</v>
       </c>
       <c r="W68" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="X68" t="n">
         <v>0.849206433333333</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z68" t="n">
         <v>34</v>
       </c>
       <c r="AA68" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AB68" t="n">
         <v>63.2</v>
       </c>
       <c r="AC68" t="n">
-        <v>66</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="69">
@@ -6925,19 +6925,19 @@
         <v>0.56790126</v>
       </c>
       <c r="I69" t="n">
-        <v>0.5399879</v>
+        <v>0.5372992</v>
       </c>
       <c r="J69" t="n">
         <v>82</v>
       </c>
       <c r="K69" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L69" t="n">
         <v>0.69832682</v>
       </c>
       <c r="M69" t="n">
-        <v>0.6943241</v>
+        <v>0.6903214</v>
       </c>
       <c r="N69" t="n">
         <v>83</v>
@@ -6949,7 +6949,7 @@
         <v>0.7720464</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.79811085</v>
+        <v>0.8241753</v>
       </c>
       <c r="R69" t="n">
         <v>83</v>
@@ -6961,31 +6961,31 @@
         <v>0.894980653333333</v>
       </c>
       <c r="U69" t="n">
-        <v>0.9442508</v>
+        <v>0.9500416</v>
       </c>
       <c r="V69" t="n">
         <v>45</v>
       </c>
       <c r="W69" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X69" t="n">
         <v>0.849199706666667</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z69" t="n">
         <v>35</v>
       </c>
       <c r="AA69" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AB69" t="n">
         <v>65.6</v>
       </c>
       <c r="AC69" t="n">
-        <v>67.8</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="70">
@@ -7014,7 +7014,7 @@
         <v>0.56241696</v>
       </c>
       <c r="I70" t="n">
-        <v>0.5374224</v>
+        <v>0.5358974</v>
       </c>
       <c r="J70" t="n">
         <v>85</v>
@@ -7026,7 +7026,7 @@
         <v>0.690704853333333</v>
       </c>
       <c r="M70" t="n">
-        <v>0.68693675</v>
+        <v>0.6831686</v>
       </c>
       <c r="N70" t="n">
         <v>85</v>
@@ -7038,7 +7038,7 @@
         <v>0.76398526</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.79134165</v>
+        <v>0.818698</v>
       </c>
       <c r="R70" t="n">
         <v>85</v>
@@ -7050,31 +7050,31 @@
         <v>0.89496664</v>
       </c>
       <c r="U70" t="n">
-        <v>0.9442508</v>
+        <v>0.9500416</v>
       </c>
       <c r="V70" t="n">
         <v>46</v>
       </c>
       <c r="W70" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X70" t="n">
         <v>0.849197053333333</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z70" t="n">
         <v>36</v>
       </c>
       <c r="AA70" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AB70" t="n">
         <v>67.4</v>
       </c>
       <c r="AC70" t="n">
-        <v>69.6</v>
+        <v>72.4</v>
       </c>
     </row>
     <row r="71">
@@ -7103,7 +7103,7 @@
         <v>0.556365353333333</v>
       </c>
       <c r="I71" t="n">
-        <v>0.53471405</v>
+        <v>0.5346123</v>
       </c>
       <c r="J71" t="n">
         <v>86</v>
@@ -7115,7 +7115,7 @@
         <v>0.682914586666667</v>
       </c>
       <c r="M71" t="n">
-        <v>0.6771307</v>
+        <v>0.6766113</v>
       </c>
       <c r="N71" t="n">
         <v>86</v>
@@ -7127,7 +7127,7 @@
         <v>0.75667956</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.78499695</v>
+        <v>0.8133143</v>
       </c>
       <c r="R71" t="n">
         <v>86</v>
@@ -7139,31 +7139,31 @@
         <v>0.89485936</v>
       </c>
       <c r="U71" t="n">
-        <v>0.94350775</v>
+        <v>0.9495293</v>
       </c>
       <c r="V71" t="n">
         <v>47</v>
       </c>
       <c r="W71" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="X71" t="n">
         <v>0.849164513333333</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z71" t="n">
         <v>39</v>
       </c>
       <c r="AA71" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AB71" t="n">
         <v>68.8</v>
       </c>
       <c r="AC71" t="n">
-        <v>73.6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72">
@@ -7192,7 +7192,7 @@
         <v>0.5490243</v>
       </c>
       <c r="I72" t="n">
-        <v>0.52840285</v>
+        <v>0.5262244</v>
       </c>
       <c r="J72" t="n">
         <v>89</v>
@@ -7204,7 +7204,7 @@
         <v>0.669895066666667</v>
       </c>
       <c r="M72" t="n">
-        <v>0.64492745</v>
+        <v>0.6338118</v>
       </c>
       <c r="N72" t="n">
         <v>89</v>
@@ -7216,7 +7216,7 @@
         <v>0.743606033333333</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.7549939</v>
+        <v>0.7663818</v>
       </c>
       <c r="R72" t="n">
         <v>89</v>
@@ -7228,31 +7228,31 @@
         <v>0.894849813333333</v>
       </c>
       <c r="U72" t="n">
-        <v>0.94363575</v>
+        <v>0.9497853</v>
       </c>
       <c r="V72" t="n">
         <v>48</v>
       </c>
       <c r="W72" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="X72" t="n">
         <v>0.84916926</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z72" t="n">
         <v>37</v>
       </c>
       <c r="AA72" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AB72" t="n">
         <v>70.4</v>
       </c>
       <c r="AC72" t="n">
-        <v>75.2</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="73">
@@ -7281,7 +7281,7 @@
         <v>0.5444823</v>
       </c>
       <c r="I73" t="n">
-        <v>0.5261238</v>
+        <v>0.5232695</v>
       </c>
       <c r="J73" t="n">
         <v>90</v>
@@ -7293,7 +7293,7 @@
         <v>0.662417486666667</v>
       </c>
       <c r="M73" t="n">
-        <v>0.6332984</v>
+        <v>0.6187342</v>
       </c>
       <c r="N73" t="n">
         <v>90</v>
@@ -7305,7 +7305,7 @@
         <v>0.736066253333333</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.73923355</v>
+        <v>0.7424008</v>
       </c>
       <c r="R73" t="n">
         <v>90</v>
@@ -7317,31 +7317,31 @@
         <v>0.894833493333333</v>
       </c>
       <c r="U73" t="n">
-        <v>0.94363575</v>
+        <v>0.9497853</v>
       </c>
       <c r="V73" t="n">
         <v>49</v>
       </c>
       <c r="W73" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="X73" t="n">
         <v>0.84916474</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z73" t="n">
         <v>38</v>
       </c>
       <c r="AA73" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AB73" t="n">
         <v>71.4</v>
       </c>
       <c r="AC73" t="n">
-        <v>76.2</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="74">
@@ -7370,19 +7370,19 @@
         <v>0.819423113333333</v>
       </c>
       <c r="I74" t="n">
-        <v>0.81735285</v>
+        <v>0.8152826</v>
       </c>
       <c r="J74" t="n">
         <v>4</v>
       </c>
       <c r="K74" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L74" t="n">
         <v>0.92134142</v>
       </c>
       <c r="M74" t="n">
-        <v>0.93318135</v>
+        <v>0.9346081</v>
       </c>
       <c r="N74" t="n">
         <v>4</v>
@@ -7394,7 +7394,7 @@
         <v>0.939761913333333</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.95218035</v>
+        <v>0.9534702</v>
       </c>
       <c r="R74" t="n">
         <v>4</v>
@@ -7406,31 +7406,31 @@
         <v>0.897019486666667</v>
       </c>
       <c r="U74" t="n">
-        <v>0.9470825</v>
+        <v>0.9515847</v>
       </c>
       <c r="V74" t="n">
         <v>2</v>
       </c>
       <c r="W74" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X74" t="n">
         <v>0.8490476</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.94027965</v>
+        <v>0.9422249</v>
       </c>
       <c r="Z74" t="n">
         <v>40</v>
       </c>
       <c r="AA74" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="AB74" t="n">
         <v>10.8</v>
       </c>
       <c r="AC74" t="n">
-        <v>24.8</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="75">
@@ -7459,19 +7459,19 @@
         <v>0.819115</v>
       </c>
       <c r="I75" t="n">
-        <v>0.81882865</v>
+        <v>0.8185423</v>
       </c>
       <c r="J75" t="n">
         <v>5</v>
       </c>
       <c r="K75" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L75" t="n">
         <v>0.921284506666667</v>
       </c>
       <c r="M75" t="n">
-        <v>0.933069</v>
+        <v>0.9344509</v>
       </c>
       <c r="N75" t="n">
         <v>5</v>
@@ -7483,7 +7483,7 @@
         <v>0.939733193333333</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.9521227</v>
+        <v>0.9533892</v>
       </c>
       <c r="R75" t="n">
         <v>5</v>
@@ -7495,31 +7495,31 @@
         <v>0.89669694</v>
       </c>
       <c r="U75" t="n">
-        <v>0.94683445</v>
+        <v>0.9515847</v>
       </c>
       <c r="V75" t="n">
         <v>10</v>
       </c>
       <c r="W75" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X75" t="n">
         <v>0.84904216</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.94039115</v>
+        <v>0.9421589</v>
       </c>
       <c r="Z75" t="n">
         <v>41</v>
       </c>
       <c r="AA75" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="AB75" t="n">
         <v>13.2</v>
       </c>
       <c r="AC75" t="n">
-        <v>18.4</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="76">
@@ -7548,19 +7548,19 @@
         <v>0.819724513333333</v>
       </c>
       <c r="I76" t="n">
-        <v>0.8204593</v>
+        <v>0.8211941</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L76" t="n">
         <v>0.921411833333333</v>
       </c>
       <c r="M76" t="n">
-        <v>0.9329023</v>
+        <v>0.9341593</v>
       </c>
       <c r="N76" t="n">
         <v>1</v>
@@ -7572,7 +7572,7 @@
         <v>0.939797153333333</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.95203715</v>
+        <v>0.9532392</v>
       </c>
       <c r="R76" t="n">
         <v>1</v>
@@ -7584,7 +7584,7 @@
         <v>0.89645716</v>
       </c>
       <c r="U76" t="n">
-        <v>0.94671065</v>
+        <v>0.9515847</v>
       </c>
       <c r="V76" t="n">
         <v>18</v>
@@ -7596,19 +7596,19 @@
         <v>0.848998093333333</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.94028755</v>
+        <v>0.9421589</v>
       </c>
       <c r="Z76" t="n">
         <v>44</v>
       </c>
       <c r="AA76" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AB76" t="n">
         <v>13</v>
       </c>
       <c r="AC76" t="n">
-        <v>20.8</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="77">
@@ -7637,43 +7637,43 @@
         <v>0.80944766</v>
       </c>
       <c r="I77" t="n">
-        <v>0.8046271</v>
+        <v>0.7998065</v>
       </c>
       <c r="J77" t="n">
         <v>49</v>
       </c>
       <c r="K77" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L77" t="n">
         <v>0.919185886666667</v>
       </c>
       <c r="M77" t="n">
-        <v>0.9327648</v>
+        <v>0.9338333</v>
       </c>
       <c r="N77" t="n">
         <v>49</v>
       </c>
       <c r="O77" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="P77" t="n">
         <v>0.938640786666667</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.95196625</v>
+        <v>0.9530719</v>
       </c>
       <c r="R77" t="n">
         <v>48</v>
       </c>
       <c r="S77" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T77" t="n">
         <v>0.89624428</v>
       </c>
       <c r="U77" t="n">
-        <v>0.94671065</v>
+        <v>0.9515847</v>
       </c>
       <c r="V77" t="n">
         <v>19</v>
@@ -7685,19 +7685,19 @@
         <v>0.848971766666667</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.94028755</v>
+        <v>0.9421589</v>
       </c>
       <c r="Z77" t="n">
         <v>45</v>
       </c>
       <c r="AA77" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="AB77" t="n">
         <v>42</v>
       </c>
       <c r="AC77" t="n">
-        <v>33.2</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="78">
@@ -7726,7 +7726,7 @@
         <v>0.788967226666667</v>
       </c>
       <c r="I78" t="n">
-        <v>0.7925545</v>
+        <v>0.7961418</v>
       </c>
       <c r="J78" t="n">
         <v>51</v>
@@ -7738,7 +7738,7 @@
         <v>0.912683873333333</v>
       </c>
       <c r="M78" t="n">
-        <v>0.92718415</v>
+        <v>0.9278416</v>
       </c>
       <c r="N78" t="n">
         <v>50</v>
@@ -7750,43 +7750,43 @@
         <v>0.935304066666667</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.95069155</v>
+        <v>0.9516341</v>
       </c>
       <c r="R78" t="n">
         <v>50</v>
       </c>
       <c r="S78" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="T78" t="n">
         <v>0.896060186666667</v>
       </c>
       <c r="U78" t="n">
-        <v>0.94658175</v>
+        <v>0.9513269</v>
       </c>
       <c r="V78" t="n">
         <v>21</v>
       </c>
       <c r="W78" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X78" t="n">
         <v>0.848919366666667</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.94028755</v>
+        <v>0.9421589</v>
       </c>
       <c r="Z78" t="n">
         <v>47</v>
       </c>
       <c r="AA78" t="n">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="AB78" t="n">
         <v>43.8</v>
       </c>
       <c r="AC78" t="n">
-        <v>54.6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79">
@@ -7815,7 +7815,7 @@
         <v>0.723080933333333</v>
       </c>
       <c r="I79" t="n">
-        <v>0.71736515</v>
+        <v>0.7116494</v>
       </c>
       <c r="J79" t="n">
         <v>65</v>
@@ -7827,7 +7827,7 @@
         <v>0.854269733333333</v>
       </c>
       <c r="M79" t="n">
-        <v>0.89583495</v>
+        <v>0.9167474</v>
       </c>
       <c r="N79" t="n">
         <v>65</v>
@@ -7839,7 +7839,7 @@
         <v>0.89321858</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.93370295</v>
+        <v>0.9444374</v>
       </c>
       <c r="R79" t="n">
         <v>65</v>
@@ -7851,31 +7851,31 @@
         <v>0.896027153333333</v>
       </c>
       <c r="U79" t="n">
-        <v>0.94645805</v>
+        <v>0.9513269</v>
       </c>
       <c r="V79" t="n">
         <v>22</v>
       </c>
       <c r="W79" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="X79" t="n">
         <v>0.849577933333333</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z79" t="n">
         <v>2</v>
       </c>
       <c r="AA79" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AB79" t="n">
         <v>43.8</v>
       </c>
       <c r="AC79" t="n">
-        <v>54.2</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="80">
@@ -7904,7 +7904,7 @@
         <v>0.711928813333333</v>
       </c>
       <c r="I80" t="n">
-        <v>0.6998592</v>
+        <v>0.6960918</v>
       </c>
       <c r="J80" t="n">
         <v>67</v>
@@ -7916,7 +7916,7 @@
         <v>0.847965673333333</v>
       </c>
       <c r="M80" t="n">
-        <v>0.8765346</v>
+        <v>0.9051035</v>
       </c>
       <c r="N80" t="n">
         <v>67</v>
@@ -7928,7 +7928,7 @@
         <v>0.888238746666667</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.9232742</v>
+        <v>0.9384437</v>
       </c>
       <c r="R80" t="n">
         <v>67</v>
@@ -7940,31 +7940,31 @@
         <v>0.89584692</v>
       </c>
       <c r="U80" t="n">
-        <v>0.9459588</v>
+        <v>0.9510693</v>
       </c>
       <c r="V80" t="n">
         <v>24</v>
       </c>
       <c r="W80" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="X80" t="n">
         <v>0.849496066666667</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z80" t="n">
         <v>10</v>
       </c>
       <c r="AA80" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AB80" t="n">
         <v>47</v>
       </c>
       <c r="AC80" t="n">
-        <v>55.8</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="81">
@@ -7993,19 +7993,19 @@
         <v>0.674726093333333</v>
       </c>
       <c r="I81" t="n">
-        <v>0.66897515</v>
+        <v>0.6632242</v>
       </c>
       <c r="J81" t="n">
         <v>69</v>
       </c>
       <c r="K81" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L81" t="n">
         <v>0.81761664</v>
       </c>
       <c r="M81" t="n">
-        <v>0.84462235</v>
+        <v>0.8543282</v>
       </c>
       <c r="N81" t="n">
         <v>69</v>
@@ -8017,7 +8017,7 @@
         <v>0.867037406666667</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.8897357</v>
+        <v>0.912434</v>
       </c>
       <c r="R81" t="n">
         <v>69</v>
@@ -8029,31 +8029,31 @@
         <v>0.895631366666667</v>
       </c>
       <c r="U81" t="n">
-        <v>0.94571245</v>
+        <v>0.9510693</v>
       </c>
       <c r="V81" t="n">
         <v>27</v>
       </c>
       <c r="W81" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="X81" t="n">
         <v>0.849432213333333</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z81" t="n">
         <v>17</v>
       </c>
       <c r="AA81" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AB81" t="n">
         <v>50.2</v>
       </c>
       <c r="AC81" t="n">
-        <v>57.6</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="82">
@@ -8082,7 +8082,7 @@
         <v>0.640178346666667</v>
       </c>
       <c r="I82" t="n">
-        <v>0.61573165</v>
+        <v>0.5960234</v>
       </c>
       <c r="J82" t="n">
         <v>71</v>
@@ -8094,7 +8094,7 @@
         <v>0.794124473333333</v>
       </c>
       <c r="M82" t="n">
-        <v>0.83183965</v>
+        <v>0.8350108</v>
       </c>
       <c r="N82" t="n">
         <v>71</v>
@@ -8106,7 +8106,7 @@
         <v>0.851261906666667</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.88306935</v>
+        <v>0.8992715</v>
       </c>
       <c r="R82" t="n">
         <v>71</v>
@@ -8118,31 +8118,31 @@
         <v>0.895539253333333</v>
       </c>
       <c r="U82" t="n">
-        <v>0.9454666</v>
+        <v>0.9510693</v>
       </c>
       <c r="V82" t="n">
         <v>29</v>
       </c>
       <c r="W82" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="X82" t="n">
         <v>0.849395186666667</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z82" t="n">
         <v>19</v>
       </c>
       <c r="AA82" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AB82" t="n">
         <v>52.2</v>
       </c>
       <c r="AC82" t="n">
-        <v>60.6</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="83">
@@ -8171,7 +8171,7 @@
         <v>0.61791942</v>
       </c>
       <c r="I83" t="n">
-        <v>0.5817284</v>
+        <v>0.5807145</v>
       </c>
       <c r="J83" t="n">
         <v>73</v>
@@ -8183,19 +8183,19 @@
         <v>0.770535206666667</v>
       </c>
       <c r="M83" t="n">
-        <v>0.81539345</v>
+        <v>0.8349102</v>
       </c>
       <c r="N83" t="n">
         <v>73</v>
       </c>
       <c r="O83" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P83" t="n">
         <v>0.83472684</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.8746987</v>
+        <v>0.8824599</v>
       </c>
       <c r="R83" t="n">
         <v>73</v>
@@ -8207,31 +8207,31 @@
         <v>0.895484726666667</v>
       </c>
       <c r="U83" t="n">
-        <v>0.94534385</v>
+        <v>0.9510693</v>
       </c>
       <c r="V83" t="n">
         <v>30</v>
       </c>
       <c r="W83" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="X83" t="n">
         <v>0.84937336</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z83" t="n">
         <v>22</v>
       </c>
       <c r="AA83" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AB83" t="n">
         <v>54.2</v>
       </c>
       <c r="AC83" t="n">
-        <v>62.2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84">
@@ -8260,7 +8260,7 @@
         <v>0.60100658</v>
       </c>
       <c r="I84" t="n">
-        <v>0.56030935</v>
+        <v>0.5551759</v>
       </c>
       <c r="J84" t="n">
         <v>75</v>
@@ -8272,7 +8272,7 @@
         <v>0.74588798</v>
       </c>
       <c r="M84" t="n">
-        <v>0.7651705</v>
+        <v>0.772681</v>
       </c>
       <c r="N84" t="n">
         <v>75</v>
@@ -8284,7 +8284,7 @@
         <v>0.815849993333333</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.8642559</v>
+        <v>0.8656477</v>
       </c>
       <c r="R84" t="n">
         <v>75</v>
@@ -8296,31 +8296,31 @@
         <v>0.895424206666667</v>
       </c>
       <c r="U84" t="n">
-        <v>0.9455895</v>
+        <v>0.9510693</v>
       </c>
       <c r="V84" t="n">
         <v>32</v>
       </c>
       <c r="W84" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="X84" t="n">
         <v>0.849374633333333</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z84" t="n">
         <v>21</v>
       </c>
       <c r="AA84" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AB84" t="n">
         <v>55.6</v>
       </c>
       <c r="AC84" t="n">
-        <v>62.6</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="85">
@@ -8349,7 +8349,7 @@
         <v>0.5855043</v>
       </c>
       <c r="I85" t="n">
-        <v>0.54879295</v>
+        <v>0.5416511</v>
       </c>
       <c r="J85" t="n">
         <v>77</v>
@@ -8361,7 +8361,7 @@
         <v>0.72306832</v>
       </c>
       <c r="M85" t="n">
-        <v>0.71779775</v>
+        <v>0.7125272</v>
       </c>
       <c r="N85" t="n">
         <v>77</v>
@@ -8373,7 +8373,7 @@
         <v>0.79583176</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.8368117</v>
+        <v>0.8389632</v>
       </c>
       <c r="R85" t="n">
         <v>77</v>
@@ -8385,31 +8385,31 @@
         <v>0.89537104</v>
       </c>
       <c r="U85" t="n">
-        <v>0.9455954</v>
+        <v>0.9513269</v>
       </c>
       <c r="V85" t="n">
         <v>33</v>
       </c>
       <c r="W85" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X85" t="n">
         <v>0.849356793333333</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z85" t="n">
         <v>24</v>
       </c>
       <c r="AA85" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AB85" t="n">
         <v>57.6</v>
       </c>
       <c r="AC85" t="n">
-        <v>63.6</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="86">
@@ -8438,7 +8438,7 @@
         <v>0.578064313333333</v>
       </c>
       <c r="I86" t="n">
-        <v>0.54512875</v>
+        <v>0.5397681</v>
       </c>
       <c r="J86" t="n">
         <v>79</v>
@@ -8450,7 +8450,7 @@
         <v>0.713864</v>
       </c>
       <c r="M86" t="n">
-        <v>0.7083917</v>
+        <v>0.7029194</v>
       </c>
       <c r="N86" t="n">
         <v>79</v>
@@ -8462,7 +8462,7 @@
         <v>0.787737633333333</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.8207525</v>
+        <v>0.8329386</v>
       </c>
       <c r="R86" t="n">
         <v>79</v>
@@ -8474,31 +8474,31 @@
         <v>0.895140246666667</v>
       </c>
       <c r="U86" t="n">
-        <v>0.94412265</v>
+        <v>0.9497853</v>
       </c>
       <c r="V86" t="n">
         <v>38</v>
       </c>
       <c r="W86" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="X86" t="n">
         <v>0.849241266666667</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z86" t="n">
         <v>28</v>
       </c>
       <c r="AA86" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB86" t="n">
         <v>60.6</v>
       </c>
       <c r="AC86" t="n">
-        <v>69</v>
+        <v>72.4</v>
       </c>
     </row>
     <row r="87">
@@ -8527,19 +8527,19 @@
         <v>0.572617593333333</v>
       </c>
       <c r="I87" t="n">
-        <v>0.54294785</v>
+        <v>0.5386513</v>
       </c>
       <c r="J87" t="n">
         <v>81</v>
       </c>
       <c r="K87" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L87" t="n">
         <v>0.70633748</v>
       </c>
       <c r="M87" t="n">
-        <v>0.70177905</v>
+        <v>0.6972206</v>
       </c>
       <c r="N87" t="n">
         <v>81</v>
@@ -8551,43 +8551,43 @@
         <v>0.78022024</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.8049222</v>
+        <v>0.8291</v>
       </c>
       <c r="R87" t="n">
         <v>81</v>
       </c>
       <c r="S87" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T87" t="n">
         <v>0.8951178</v>
       </c>
       <c r="U87" t="n">
-        <v>0.9442508</v>
+        <v>0.9500416</v>
       </c>
       <c r="V87" t="n">
         <v>39</v>
       </c>
       <c r="W87" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X87" t="n">
         <v>0.849240286666667</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z87" t="n">
         <v>29</v>
       </c>
       <c r="AA87" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="AB87" t="n">
         <v>62.2</v>
       </c>
       <c r="AC87" t="n">
-        <v>69.6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88">
@@ -8616,19 +8616,19 @@
         <v>0.567136746666667</v>
       </c>
       <c r="I88" t="n">
-        <v>0.53997165</v>
+        <v>0.5377399</v>
       </c>
       <c r="J88" t="n">
         <v>83</v>
       </c>
       <c r="K88" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L88" t="n">
         <v>0.69870064</v>
       </c>
       <c r="M88" t="n">
-        <v>0.6956354</v>
+        <v>0.6925702</v>
       </c>
       <c r="N88" t="n">
         <v>82</v>
@@ -8640,7 +8640,7 @@
         <v>0.772912786666667</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.7993639</v>
+        <v>0.825815</v>
       </c>
       <c r="R88" t="n">
         <v>82</v>
@@ -8652,31 +8652,31 @@
         <v>0.89507036</v>
       </c>
       <c r="U88" t="n">
-        <v>0.94400075</v>
+        <v>0.9497853</v>
       </c>
       <c r="V88" t="n">
         <v>40</v>
       </c>
       <c r="W88" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X88" t="n">
         <v>0.849216993333333</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z88" t="n">
         <v>31</v>
       </c>
       <c r="AA88" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AB88" t="n">
         <v>63.6</v>
       </c>
       <c r="AC88" t="n">
-        <v>72</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="89">
@@ -8705,7 +8705,7 @@
         <v>0.56246316</v>
       </c>
       <c r="I89" t="n">
-        <v>0.53771635</v>
+        <v>0.5365857</v>
       </c>
       <c r="J89" t="n">
         <v>84</v>
@@ -8717,7 +8717,7 @@
         <v>0.691691846666667</v>
       </c>
       <c r="M89" t="n">
-        <v>0.68918635</v>
+        <v>0.6866809</v>
       </c>
       <c r="N89" t="n">
         <v>84</v>
@@ -8729,7 +8729,7 @@
         <v>0.765639906666667</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.7935364</v>
+        <v>0.8214329</v>
       </c>
       <c r="R89" t="n">
         <v>84</v>
@@ -8741,31 +8741,31 @@
         <v>0.895019806666667</v>
       </c>
       <c r="U89" t="n">
-        <v>0.943751</v>
+        <v>0.9495293</v>
       </c>
       <c r="V89" t="n">
         <v>41</v>
       </c>
       <c r="W89" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X89" t="n">
         <v>0.849221773333333</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z89" t="n">
         <v>30</v>
       </c>
       <c r="AA89" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="AB89" t="n">
         <v>64.6</v>
       </c>
       <c r="AC89" t="n">
-        <v>74</v>
+        <v>76.6</v>
       </c>
     </row>
     <row r="90">
@@ -8794,7 +8794,7 @@
         <v>0.553319313333333</v>
       </c>
       <c r="I90" t="n">
-        <v>0.53122495</v>
+        <v>0.529867</v>
       </c>
       <c r="J90" t="n">
         <v>87</v>
@@ -8806,7 +8806,7 @@
         <v>0.677956653333333</v>
       </c>
       <c r="M90" t="n">
-        <v>0.6593274</v>
+        <v>0.6523983</v>
       </c>
       <c r="N90" t="n">
         <v>87</v>
@@ -8818,7 +8818,7 @@
         <v>0.75251056</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.7711813</v>
+        <v>0.789852</v>
       </c>
       <c r="R90" t="n">
         <v>87</v>
@@ -8830,31 +8830,31 @@
         <v>0.894996686666667</v>
       </c>
       <c r="U90" t="n">
-        <v>0.943751</v>
+        <v>0.9495293</v>
       </c>
       <c r="V90" t="n">
         <v>43</v>
       </c>
       <c r="W90" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="X90" t="n">
         <v>0.849215046666667</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z90" t="n">
         <v>32</v>
       </c>
       <c r="AA90" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AB90" t="n">
         <v>67.2</v>
       </c>
       <c r="AC90" t="n">
-        <v>76.2</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="91">
@@ -8883,7 +8883,7 @@
         <v>0.549672493333333</v>
       </c>
       <c r="I91" t="n">
-        <v>0.52958775</v>
+        <v>0.52756</v>
       </c>
       <c r="J91" t="n">
         <v>88</v>
@@ -8895,7 +8895,7 @@
         <v>0.672291526666667</v>
       </c>
       <c r="M91" t="n">
-        <v>0.65097345</v>
+        <v>0.6406268</v>
       </c>
       <c r="N91" t="n">
         <v>88</v>
@@ -8907,7 +8907,7 @@
         <v>0.746826006666667</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.76123405</v>
+        <v>0.7756421</v>
       </c>
       <c r="R91" t="n">
         <v>88</v>
@@ -8919,31 +8919,31 @@
         <v>0.894996686666667</v>
       </c>
       <c r="U91" t="n">
-        <v>0.943751</v>
+        <v>0.9495293</v>
       </c>
       <c r="V91" t="n">
         <v>44</v>
       </c>
       <c r="W91" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X91" t="n">
         <v>0.849215046666667</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Z91" t="n">
         <v>33</v>
       </c>
       <c r="AA91" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AB91" t="n">
         <v>68.2</v>
       </c>
       <c r="AC91" t="n">
-        <v>77.2</v>
+        <v>79.8</v>
       </c>
     </row>
   </sheetData>
